--- a/Code/Results/Cases/Case_2_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_line/pl_mw.xlsx
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.74315663020954</v>
+        <v>1.743156630209427</v>
       </c>
       <c r="C2">
         <v>0.5463903801226309</v>
@@ -424,25 +424,25 @@
         <v>0.1821067604589075</v>
       </c>
       <c r="F2">
-        <v>1.559370350146651</v>
+        <v>1.559370350146636</v>
       </c>
       <c r="G2">
         <v>0.7806505784319455</v>
       </c>
       <c r="H2">
-        <v>0.513177925676203</v>
+        <v>0.5131779256761888</v>
       </c>
       <c r="I2">
-        <v>0.06907139836499887</v>
+        <v>0.06907139836498555</v>
       </c>
       <c r="J2">
-        <v>0.5232164121728786</v>
+        <v>0.5232164121728644</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.7956158462974727</v>
+        <v>0.7956158462974869</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.509048077798383</v>
+        <v>1.509048077798241</v>
       </c>
       <c r="C3">
-        <v>0.4721252549034887</v>
+        <v>0.4721252549038297</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1574660417879414</v>
+        <v>0.1574660417879343</v>
       </c>
       <c r="F3">
         <v>1.360126115099391</v>
       </c>
       <c r="G3">
-        <v>0.7173052320668489</v>
+        <v>0.7173052320668702</v>
       </c>
       <c r="H3">
-        <v>0.4889284207584979</v>
+        <v>0.4889284207584836</v>
       </c>
       <c r="I3">
-        <v>0.0727563952899013</v>
+        <v>0.07275639528991285</v>
       </c>
       <c r="J3">
-        <v>0.4527091642828012</v>
+        <v>0.4527091642828083</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6875849485219305</v>
+        <v>0.6875849485219234</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.366434782651538</v>
+        <v>1.366434782651623</v>
       </c>
       <c r="C4">
-        <v>0.4270345220558625</v>
+        <v>0.4270345220559761</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1425215604149983</v>
+        <v>0.1425215604150267</v>
       </c>
       <c r="F4">
         <v>1.240507153312123</v>
       </c>
       <c r="G4">
-        <v>0.6806842012616912</v>
+        <v>0.6806842012616983</v>
       </c>
       <c r="H4">
-        <v>0.4756585345863584</v>
+        <v>0.4756585345863513</v>
       </c>
       <c r="I4">
-        <v>0.07520292830229725</v>
+        <v>0.07520292830230701</v>
       </c>
       <c r="J4">
-        <v>0.4097954499809404</v>
+        <v>0.4097954499809617</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.308550564821587</v>
+        <v>1.30855056482153</v>
       </c>
       <c r="C5">
-        <v>0.4087653877432729</v>
+        <v>0.4087653877431023</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1364715493394115</v>
+        <v>0.1364715493394009</v>
       </c>
       <c r="F5">
         <v>1.192369060733299</v>
       </c>
       <c r="G5">
-        <v>0.6662827899866741</v>
+        <v>0.6662827899866528</v>
       </c>
       <c r="H5">
-        <v>0.4706269033888759</v>
+        <v>0.470626903388883</v>
       </c>
       <c r="I5">
-        <v>0.07624363560954084</v>
+        <v>0.07624363560952485</v>
       </c>
       <c r="J5">
-        <v>0.3923856805610484</v>
+        <v>0.3923856805610271</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5952803022089483</v>
+        <v>0.5952803022089412</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,10 +564,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.298951485096012</v>
+        <v>1.298951485096097</v>
       </c>
       <c r="C6">
-        <v>0.4057375826909322</v>
+        <v>0.4057375826909038</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0.4698132406955011</v>
       </c>
       <c r="I6">
-        <v>0.07641901560083664</v>
+        <v>0.0764190156008544</v>
       </c>
       <c r="J6">
-        <v>0.3894990320835419</v>
+        <v>0.3894990320835277</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5908664774905432</v>
+        <v>0.5908664774905361</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.365653263298611</v>
+        <v>1.365653263298753</v>
       </c>
       <c r="C7">
-        <v>0.4267877380921448</v>
+        <v>0.4267877380919458</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0.1424398142493004</v>
       </c>
       <c r="F7">
-        <v>1.239855582304529</v>
+        <v>1.239855582304571</v>
       </c>
       <c r="G7">
         <v>0.6804879284020942</v>
@@ -623,16 +623,16 @@
         <v>0.4755891936767611</v>
       </c>
       <c r="I7">
-        <v>0.0752167897753333</v>
+        <v>0.07521678977535906</v>
       </c>
       <c r="J7">
-        <v>0.4095603619333517</v>
+        <v>0.4095603619333446</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6215475465502038</v>
+        <v>0.6215475465501754</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.66216851086827</v>
+        <v>1.662168510868185</v>
       </c>
       <c r="C8">
-        <v>0.5206643559047279</v>
+        <v>0.5206643559044153</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1735681487996956</v>
+        <v>0.1735681487997098</v>
       </c>
       <c r="F8">
-        <v>1.490059466539691</v>
+        <v>1.490059466539677</v>
       </c>
       <c r="G8">
-        <v>0.7583061928706414</v>
+        <v>0.7583061928706272</v>
       </c>
       <c r="H8">
-        <v>0.5044610366607145</v>
+        <v>0.5044610366607216</v>
       </c>
       <c r="I8">
-        <v>0.07030221784603174</v>
+        <v>0.07030221784599711</v>
       </c>
       <c r="J8">
-        <v>0.4988162889566539</v>
+        <v>0.4988162889566112</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>2.255219594431935</v>
       </c>
       <c r="C9">
-        <v>0.7098946221227322</v>
+        <v>0.7098946221225617</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -696,19 +696,19 @@
         <v>0.9313989170593544</v>
       </c>
       <c r="H9">
-        <v>0.5754687063429103</v>
+        <v>0.5754687063429031</v>
       </c>
       <c r="I9">
-        <v>0.06225099520673361</v>
+        <v>0.06225099520671762</v>
       </c>
       <c r="J9">
-        <v>0.6777024761569379</v>
+        <v>0.6777024761569308</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.032747270400641</v>
+        <v>1.032747270400648</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.702068402532348</v>
+        <v>2.702068402532234</v>
       </c>
       <c r="C10">
-        <v>0.8537753554313952</v>
+        <v>0.8537753554313099</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2841563340421658</v>
+        <v>0.2841563340421374</v>
       </c>
       <c r="F10">
         <v>2.406247042543413</v>
@@ -734,19 +734,19 @@
         <v>1.074845768637914</v>
       </c>
       <c r="H10">
-        <v>0.6387813772964535</v>
+        <v>0.6387813772964677</v>
       </c>
       <c r="I10">
-        <v>0.05750256960664757</v>
+        <v>0.05750256960666178</v>
       </c>
       <c r="J10">
-        <v>0.8128126000782743</v>
+        <v>0.8128126000783169</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.240510779118296</v>
+        <v>1.240510779118281</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.908802679019971</v>
+        <v>2.908802679020027</v>
       </c>
       <c r="C11">
-        <v>0.9207235063260555</v>
+        <v>0.9207235063260839</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3063510652256909</v>
+        <v>0.306351065225698</v>
       </c>
       <c r="F11">
-        <v>2.594362691385811</v>
+        <v>2.594362691385783</v>
       </c>
       <c r="G11">
         <v>1.144596438324101</v>
@@ -775,7 +775,7 @@
         <v>0.6706036076857771</v>
       </c>
       <c r="I11">
-        <v>0.05564819046924896</v>
+        <v>0.05564819046924363</v>
       </c>
       <c r="J11">
         <v>0.8754159231346677</v>
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.987682573725237</v>
+        <v>2.987682573725124</v>
       </c>
       <c r="C12">
-        <v>0.9463319107570385</v>
+        <v>0.9463319107571806</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3148350515189051</v>
+        <v>0.314835051518898</v>
       </c>
       <c r="F12">
         <v>2.666601991980997</v>
       </c>
       <c r="G12">
-        <v>1.171746808915216</v>
+        <v>1.171746808915231</v>
       </c>
       <c r="H12">
-        <v>0.6831452717923412</v>
+        <v>0.6831452717923341</v>
       </c>
       <c r="I12">
-        <v>0.05499510562984788</v>
+        <v>0.05499510562983723</v>
       </c>
       <c r="J12">
-        <v>0.8993182427325479</v>
+        <v>0.8993182427325621</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.373676381174761</v>
+        <v>1.373676381174775</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.970666292981662</v>
+        <v>2.970666292981775</v>
       </c>
       <c r="C13">
-        <v>0.9408045548865971</v>
+        <v>0.9408045548867108</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3130041471128493</v>
+        <v>0.3130041471128706</v>
       </c>
       <c r="F13">
-        <v>2.650997006740511</v>
+        <v>2.650997006740482</v>
       </c>
       <c r="G13">
         <v>1.165865135455505</v>
       </c>
       <c r="H13">
-        <v>0.6804213716923684</v>
+        <v>0.6804213716923755</v>
       </c>
       <c r="I13">
-        <v>0.05513348381284011</v>
+        <v>0.05513348381284366</v>
       </c>
       <c r="J13">
         <v>0.8941611958821341</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.36573496982524</v>
+        <v>1.365734969825255</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.915279674633382</v>
+        <v>2.915279674633268</v>
       </c>
       <c r="C14">
-        <v>0.9228249267733588</v>
+        <v>0.9228249267733872</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3070473872094368</v>
+        <v>0.3070473872094652</v>
       </c>
       <c r="F14">
-        <v>2.600284915575344</v>
+        <v>2.600284915575287</v>
       </c>
       <c r="G14">
         <v>1.146814779854566</v>
       </c>
       <c r="H14">
-        <v>0.6716252220463588</v>
+        <v>0.6716252220463659</v>
       </c>
       <c r="I14">
-        <v>0.0555934439179655</v>
+        <v>0.05559344391794419</v>
       </c>
       <c r="J14">
-        <v>0.8773782618464878</v>
+        <v>0.8773782618464594</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.339892981652113</v>
+        <v>1.339892981652099</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.881434202602804</v>
+        <v>2.88143420260252</v>
       </c>
       <c r="C15">
-        <v>0.9118466195340886</v>
+        <v>0.9118466195343444</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.303409395536427</v>
+        <v>0.3034093955363986</v>
       </c>
       <c r="F15">
-        <v>2.569357296911392</v>
+        <v>2.569357296911363</v>
       </c>
       <c r="G15">
         <v>1.135244786480158</v>
@@ -927,16 +927,16 @@
         <v>0.6663031083169457</v>
       </c>
       <c r="I15">
-        <v>0.05588174676816138</v>
+        <v>0.05588174676817914</v>
       </c>
       <c r="J15">
-        <v>0.8671247357200684</v>
+        <v>0.86712473572004</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.324106593635989</v>
+        <v>1.32410659363596</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.688635457692726</v>
+        <v>2.688635457692783</v>
       </c>
       <c r="C16">
-        <v>0.8494336706863521</v>
+        <v>0.8494336706865226</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -956,25 +956,25 @@
         <v>0.2827162972490882</v>
       </c>
       <c r="F16">
-        <v>2.394086070443208</v>
+        <v>2.39408607044318</v>
       </c>
       <c r="G16">
-        <v>1.070385387101553</v>
+        <v>1.070385387101538</v>
       </c>
       <c r="H16">
         <v>0.6367672194025289</v>
       </c>
       <c r="I16">
-        <v>0.0576303345196898</v>
+        <v>0.05763033451966137</v>
       </c>
       <c r="J16">
-        <v>0.8087469126147155</v>
+        <v>0.8087469126147298</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.234254636589824</v>
+        <v>1.234254636589839</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,7 +985,7 @@
         <v>2.571311153020986</v>
       </c>
       <c r="C17">
-        <v>0.8115564686041239</v>
+        <v>0.8115564686042092</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>1.031809067127668</v>
       </c>
       <c r="H17">
-        <v>0.6194600573079256</v>
+        <v>0.6194600573079185</v>
       </c>
       <c r="I17">
-        <v>0.05878478801114895</v>
+        <v>0.05878478801114184</v>
       </c>
       <c r="J17">
-        <v>0.7732476654691709</v>
+        <v>0.7732476654691567</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.50414862767235</v>
+        <v>2.504148627672407</v>
       </c>
       <c r="C18">
-        <v>0.789908559455057</v>
+        <v>0.7899085594552275</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>1.010038141104033</v>
       </c>
       <c r="H18">
-        <v>0.6097860104613133</v>
+        <v>0.6097860104613275</v>
       </c>
       <c r="I18">
-        <v>0.0594772239864092</v>
+        <v>0.05947722398640742</v>
       </c>
       <c r="J18">
         <v>0.7529347299765092</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.148397785373106</v>
+        <v>1.148397785373113</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.481460634135942</v>
+        <v>2.481460634136113</v>
       </c>
       <c r="C19">
-        <v>0.7826014784232882</v>
+        <v>0.782601478423004</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2605409449797023</v>
+        <v>0.2605409449797236</v>
       </c>
       <c r="F19">
-        <v>2.207523223601143</v>
+        <v>2.207523223601171</v>
       </c>
       <c r="G19">
         <v>1.002735931432014</v>
       </c>
       <c r="H19">
-        <v>0.6065571076238996</v>
+        <v>0.6065571076238925</v>
       </c>
       <c r="I19">
         <v>0.05971640706620285</v>
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.583766814929845</v>
+        <v>2.583766814929788</v>
       </c>
       <c r="C20">
-        <v>0.8155739889154177</v>
+        <v>0.815573988915645</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2714833489623558</v>
+        <v>0.2714833489623274</v>
       </c>
       <c r="F20">
-        <v>2.299415121486788</v>
+        <v>2.299415121486803</v>
       </c>
       <c r="G20">
-        <v>1.035871784820813</v>
+        <v>1.035871784820799</v>
       </c>
       <c r="H20">
-        <v>0.6212730050325774</v>
+        <v>0.6212730050325845</v>
       </c>
       <c r="I20">
-        <v>0.05865891746885232</v>
+        <v>0.05865891746883811</v>
       </c>
       <c r="J20">
-        <v>0.7770155057253589</v>
+        <v>0.777015505725366</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.185435804709016</v>
+        <v>1.185435804709009</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.931531116537258</v>
+        <v>2.931531116537315</v>
       </c>
       <c r="C21">
-        <v>0.9280986594283434</v>
+        <v>0.9280986594283149</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3087947804896345</v>
+        <v>0.3087947804896416</v>
       </c>
       <c r="F21">
-        <v>2.615151889860641</v>
+        <v>2.615151889860613</v>
       </c>
       <c r="G21">
-        <v>1.152389542797039</v>
+        <v>1.152389542797025</v>
       </c>
       <c r="H21">
         <v>0.6741950442925386</v>
       </c>
       <c r="I21">
-        <v>0.05545696425828872</v>
+        <v>0.05545696425827629</v>
       </c>
       <c r="J21">
-        <v>0.8823022305505219</v>
+        <v>0.8823022305505077</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.162331552630974</v>
+        <v>3.162331552630917</v>
       </c>
       <c r="C22">
-        <v>1.003158769518251</v>
+        <v>1.003158769518592</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3336486531081704</v>
+        <v>0.3336486531081491</v>
       </c>
       <c r="F22">
-        <v>2.827429992485037</v>
+        <v>2.827429992485065</v>
       </c>
       <c r="G22">
-        <v>1.232888561004472</v>
+        <v>1.232888561004458</v>
       </c>
       <c r="H22">
         <v>0.7116776833902136</v>
       </c>
       <c r="I22">
-        <v>0.0536536209041234</v>
+        <v>0.05365362090412162</v>
       </c>
       <c r="J22">
         <v>0.9522720601563321</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.455239050529002</v>
+        <v>1.455239050528988</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,7 +1213,7 @@
         <v>3.038792285033423</v>
       </c>
       <c r="C23">
-        <v>0.9629437252020807</v>
+        <v>0.9629437252020239</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1222,19 +1222,19 @@
         <v>0.3203366164555845</v>
       </c>
       <c r="F23">
-        <v>2.713542402432893</v>
+        <v>2.713542402432921</v>
       </c>
       <c r="G23">
-        <v>1.189493943754869</v>
+        <v>1.189493943754883</v>
       </c>
       <c r="H23">
         <v>0.6913869807084723</v>
       </c>
       <c r="I23">
-        <v>0.05458771773168891</v>
+        <v>0.05458771773169069</v>
       </c>
       <c r="J23">
-        <v>0.9148102969387253</v>
+        <v>0.9148102969387395</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1260,25 +1260,25 @@
         <v>0.2708805363385878</v>
       </c>
       <c r="F24">
-        <v>2.294344267238657</v>
+        <v>2.294344267238642</v>
       </c>
       <c r="G24">
-        <v>1.034033768805998</v>
+        <v>1.034033768806012</v>
       </c>
       <c r="H24">
-        <v>0.6204525156786502</v>
+        <v>0.6204525156786431</v>
       </c>
       <c r="I24">
-        <v>0.05871573444937539</v>
+        <v>0.05871573444937361</v>
       </c>
       <c r="J24">
-        <v>0.7753117683051585</v>
+        <v>0.7753117683051727</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.182815031815906</v>
+        <v>1.18281503181592</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.093148431260062</v>
+        <v>2.09314843126009</v>
       </c>
       <c r="C25">
-        <v>0.6579862200606215</v>
+        <v>0.6579862200607351</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2191636224754987</v>
+        <v>0.2191636224755058</v>
       </c>
       <c r="F25">
-        <v>1.863164447981532</v>
+        <v>1.863164447981518</v>
       </c>
       <c r="G25">
-        <v>0.8820119092559224</v>
+        <v>0.8820119092559082</v>
       </c>
       <c r="H25">
         <v>0.5544885535936572</v>
       </c>
       <c r="I25">
-        <v>0.06424014037320003</v>
+        <v>0.06424014037317782</v>
       </c>
       <c r="J25">
-        <v>0.6287671632667156</v>
+        <v>0.6287671632667085</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.9575774354182869</v>
+        <v>0.9575774354182727</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_line/pl_mw.xlsx
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.743156630209427</v>
+        <v>1.74315663020954</v>
       </c>
       <c r="C2">
         <v>0.5463903801226309</v>
@@ -424,25 +424,25 @@
         <v>0.1821067604589075</v>
       </c>
       <c r="F2">
-        <v>1.559370350146636</v>
+        <v>1.559370350146651</v>
       </c>
       <c r="G2">
         <v>0.7806505784319455</v>
       </c>
       <c r="H2">
-        <v>0.5131779256761888</v>
+        <v>0.513177925676203</v>
       </c>
       <c r="I2">
-        <v>0.06907139836498555</v>
+        <v>0.06907139836499887</v>
       </c>
       <c r="J2">
-        <v>0.5232164121728644</v>
+        <v>0.5232164121728786</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.7956158462974869</v>
+        <v>0.7956158462974727</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.509048077798241</v>
+        <v>1.509048077798383</v>
       </c>
       <c r="C3">
-        <v>0.4721252549038297</v>
+        <v>0.4721252549034887</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1574660417879343</v>
+        <v>0.1574660417879414</v>
       </c>
       <c r="F3">
         <v>1.360126115099391</v>
       </c>
       <c r="G3">
-        <v>0.7173052320668702</v>
+        <v>0.7173052320668489</v>
       </c>
       <c r="H3">
-        <v>0.4889284207584836</v>
+        <v>0.4889284207584979</v>
       </c>
       <c r="I3">
-        <v>0.07275639528991285</v>
+        <v>0.0727563952899013</v>
       </c>
       <c r="J3">
-        <v>0.4527091642828083</v>
+        <v>0.4527091642828012</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6875849485219234</v>
+        <v>0.6875849485219305</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.366434782651623</v>
+        <v>1.366434782651538</v>
       </c>
       <c r="C4">
-        <v>0.4270345220559761</v>
+        <v>0.4270345220558625</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1425215604150267</v>
+        <v>0.1425215604149983</v>
       </c>
       <c r="F4">
         <v>1.240507153312123</v>
       </c>
       <c r="G4">
-        <v>0.6806842012616983</v>
+        <v>0.6806842012616912</v>
       </c>
       <c r="H4">
-        <v>0.4756585345863513</v>
+        <v>0.4756585345863584</v>
       </c>
       <c r="I4">
-        <v>0.07520292830230701</v>
+        <v>0.07520292830229725</v>
       </c>
       <c r="J4">
-        <v>0.4097954499809617</v>
+        <v>0.4097954499809404</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.30855056482153</v>
+        <v>1.308550564821587</v>
       </c>
       <c r="C5">
-        <v>0.4087653877431023</v>
+        <v>0.4087653877432729</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1364715493394009</v>
+        <v>0.1364715493394115</v>
       </c>
       <c r="F5">
         <v>1.192369060733299</v>
       </c>
       <c r="G5">
-        <v>0.6662827899866528</v>
+        <v>0.6662827899866741</v>
       </c>
       <c r="H5">
-        <v>0.470626903388883</v>
+        <v>0.4706269033888759</v>
       </c>
       <c r="I5">
-        <v>0.07624363560952485</v>
+        <v>0.07624363560954084</v>
       </c>
       <c r="J5">
-        <v>0.3923856805610271</v>
+        <v>0.3923856805610484</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5952803022089412</v>
+        <v>0.5952803022089483</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,10 +564,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.298951485096097</v>
+        <v>1.298951485096012</v>
       </c>
       <c r="C6">
-        <v>0.4057375826909038</v>
+        <v>0.4057375826909322</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0.4698132406955011</v>
       </c>
       <c r="I6">
-        <v>0.0764190156008544</v>
+        <v>0.07641901560083664</v>
       </c>
       <c r="J6">
-        <v>0.3894990320835277</v>
+        <v>0.3894990320835419</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5908664774905361</v>
+        <v>0.5908664774905432</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.365653263298753</v>
+        <v>1.365653263298611</v>
       </c>
       <c r="C7">
-        <v>0.4267877380919458</v>
+        <v>0.4267877380921448</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0.1424398142493004</v>
       </c>
       <c r="F7">
-        <v>1.239855582304571</v>
+        <v>1.239855582304529</v>
       </c>
       <c r="G7">
         <v>0.6804879284020942</v>
@@ -623,16 +623,16 @@
         <v>0.4755891936767611</v>
       </c>
       <c r="I7">
-        <v>0.07521678977535906</v>
+        <v>0.0752167897753333</v>
       </c>
       <c r="J7">
-        <v>0.4095603619333446</v>
+        <v>0.4095603619333517</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6215475465501754</v>
+        <v>0.6215475465502038</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.662168510868185</v>
+        <v>1.66216851086827</v>
       </c>
       <c r="C8">
-        <v>0.5206643559044153</v>
+        <v>0.5206643559047279</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1735681487997098</v>
+        <v>0.1735681487996956</v>
       </c>
       <c r="F8">
-        <v>1.490059466539677</v>
+        <v>1.490059466539691</v>
       </c>
       <c r="G8">
-        <v>0.7583061928706272</v>
+        <v>0.7583061928706414</v>
       </c>
       <c r="H8">
-        <v>0.5044610366607216</v>
+        <v>0.5044610366607145</v>
       </c>
       <c r="I8">
-        <v>0.07030221784599711</v>
+        <v>0.07030221784603174</v>
       </c>
       <c r="J8">
-        <v>0.4988162889566112</v>
+        <v>0.4988162889566539</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>2.255219594431935</v>
       </c>
       <c r="C9">
-        <v>0.7098946221225617</v>
+        <v>0.7098946221227322</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -696,19 +696,19 @@
         <v>0.9313989170593544</v>
       </c>
       <c r="H9">
-        <v>0.5754687063429031</v>
+        <v>0.5754687063429103</v>
       </c>
       <c r="I9">
-        <v>0.06225099520671762</v>
+        <v>0.06225099520673361</v>
       </c>
       <c r="J9">
-        <v>0.6777024761569308</v>
+        <v>0.6777024761569379</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.032747270400648</v>
+        <v>1.032747270400641</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.702068402532234</v>
+        <v>2.702068402532348</v>
       </c>
       <c r="C10">
-        <v>0.8537753554313099</v>
+        <v>0.8537753554313952</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2841563340421374</v>
+        <v>0.2841563340421658</v>
       </c>
       <c r="F10">
         <v>2.406247042543413</v>
@@ -734,19 +734,19 @@
         <v>1.074845768637914</v>
       </c>
       <c r="H10">
-        <v>0.6387813772964677</v>
+        <v>0.6387813772964535</v>
       </c>
       <c r="I10">
-        <v>0.05750256960666178</v>
+        <v>0.05750256960664757</v>
       </c>
       <c r="J10">
-        <v>0.8128126000783169</v>
+        <v>0.8128126000782743</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.240510779118281</v>
+        <v>1.240510779118296</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.908802679020027</v>
+        <v>2.908802679019971</v>
       </c>
       <c r="C11">
-        <v>0.9207235063260839</v>
+        <v>0.9207235063260555</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.306351065225698</v>
+        <v>0.3063510652256909</v>
       </c>
       <c r="F11">
-        <v>2.594362691385783</v>
+        <v>2.594362691385811</v>
       </c>
       <c r="G11">
         <v>1.144596438324101</v>
@@ -775,7 +775,7 @@
         <v>0.6706036076857771</v>
       </c>
       <c r="I11">
-        <v>0.05564819046924363</v>
+        <v>0.05564819046924896</v>
       </c>
       <c r="J11">
         <v>0.8754159231346677</v>
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.987682573725124</v>
+        <v>2.987682573725237</v>
       </c>
       <c r="C12">
-        <v>0.9463319107571806</v>
+        <v>0.9463319107570385</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.314835051518898</v>
+        <v>0.3148350515189051</v>
       </c>
       <c r="F12">
         <v>2.666601991980997</v>
       </c>
       <c r="G12">
-        <v>1.171746808915231</v>
+        <v>1.171746808915216</v>
       </c>
       <c r="H12">
-        <v>0.6831452717923341</v>
+        <v>0.6831452717923412</v>
       </c>
       <c r="I12">
-        <v>0.05499510562983723</v>
+        <v>0.05499510562984788</v>
       </c>
       <c r="J12">
-        <v>0.8993182427325621</v>
+        <v>0.8993182427325479</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.373676381174775</v>
+        <v>1.373676381174761</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.970666292981775</v>
+        <v>2.970666292981662</v>
       </c>
       <c r="C13">
-        <v>0.9408045548867108</v>
+        <v>0.9408045548865971</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3130041471128706</v>
+        <v>0.3130041471128493</v>
       </c>
       <c r="F13">
-        <v>2.650997006740482</v>
+        <v>2.650997006740511</v>
       </c>
       <c r="G13">
         <v>1.165865135455505</v>
       </c>
       <c r="H13">
-        <v>0.6804213716923755</v>
+        <v>0.6804213716923684</v>
       </c>
       <c r="I13">
-        <v>0.05513348381284366</v>
+        <v>0.05513348381284011</v>
       </c>
       <c r="J13">
         <v>0.8941611958821341</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.365734969825255</v>
+        <v>1.36573496982524</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.915279674633268</v>
+        <v>2.915279674633382</v>
       </c>
       <c r="C14">
-        <v>0.9228249267733872</v>
+        <v>0.9228249267733588</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3070473872094652</v>
+        <v>0.3070473872094368</v>
       </c>
       <c r="F14">
-        <v>2.600284915575287</v>
+        <v>2.600284915575344</v>
       </c>
       <c r="G14">
         <v>1.146814779854566</v>
       </c>
       <c r="H14">
-        <v>0.6716252220463659</v>
+        <v>0.6716252220463588</v>
       </c>
       <c r="I14">
-        <v>0.05559344391794419</v>
+        <v>0.0555934439179655</v>
       </c>
       <c r="J14">
-        <v>0.8773782618464594</v>
+        <v>0.8773782618464878</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.339892981652099</v>
+        <v>1.339892981652113</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.88143420260252</v>
+        <v>2.881434202602804</v>
       </c>
       <c r="C15">
-        <v>0.9118466195343444</v>
+        <v>0.9118466195340886</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3034093955363986</v>
+        <v>0.303409395536427</v>
       </c>
       <c r="F15">
-        <v>2.569357296911363</v>
+        <v>2.569357296911392</v>
       </c>
       <c r="G15">
         <v>1.135244786480158</v>
@@ -927,16 +927,16 @@
         <v>0.6663031083169457</v>
       </c>
       <c r="I15">
-        <v>0.05588174676817914</v>
+        <v>0.05588174676816138</v>
       </c>
       <c r="J15">
-        <v>0.86712473572004</v>
+        <v>0.8671247357200684</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.32410659363596</v>
+        <v>1.324106593635989</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.688635457692783</v>
+        <v>2.688635457692726</v>
       </c>
       <c r="C16">
-        <v>0.8494336706865226</v>
+        <v>0.8494336706863521</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -956,25 +956,25 @@
         <v>0.2827162972490882</v>
       </c>
       <c r="F16">
-        <v>2.39408607044318</v>
+        <v>2.394086070443208</v>
       </c>
       <c r="G16">
-        <v>1.070385387101538</v>
+        <v>1.070385387101553</v>
       </c>
       <c r="H16">
         <v>0.6367672194025289</v>
       </c>
       <c r="I16">
-        <v>0.05763033451966137</v>
+        <v>0.0576303345196898</v>
       </c>
       <c r="J16">
-        <v>0.8087469126147298</v>
+        <v>0.8087469126147155</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.234254636589839</v>
+        <v>1.234254636589824</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,7 +985,7 @@
         <v>2.571311153020986</v>
       </c>
       <c r="C17">
-        <v>0.8115564686042092</v>
+        <v>0.8115564686041239</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>1.031809067127668</v>
       </c>
       <c r="H17">
-        <v>0.6194600573079185</v>
+        <v>0.6194600573079256</v>
       </c>
       <c r="I17">
-        <v>0.05878478801114184</v>
+        <v>0.05878478801114895</v>
       </c>
       <c r="J17">
-        <v>0.7732476654691567</v>
+        <v>0.7732476654691709</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.504148627672407</v>
+        <v>2.50414862767235</v>
       </c>
       <c r="C18">
-        <v>0.7899085594552275</v>
+        <v>0.789908559455057</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>1.010038141104033</v>
       </c>
       <c r="H18">
-        <v>0.6097860104613275</v>
+        <v>0.6097860104613133</v>
       </c>
       <c r="I18">
-        <v>0.05947722398640742</v>
+        <v>0.0594772239864092</v>
       </c>
       <c r="J18">
         <v>0.7529347299765092</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.148397785373113</v>
+        <v>1.148397785373106</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.481460634136113</v>
+        <v>2.481460634135942</v>
       </c>
       <c r="C19">
-        <v>0.782601478423004</v>
+        <v>0.7826014784232882</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2605409449797236</v>
+        <v>0.2605409449797023</v>
       </c>
       <c r="F19">
-        <v>2.207523223601171</v>
+        <v>2.207523223601143</v>
       </c>
       <c r="G19">
         <v>1.002735931432014</v>
       </c>
       <c r="H19">
-        <v>0.6065571076238925</v>
+        <v>0.6065571076238996</v>
       </c>
       <c r="I19">
         <v>0.05971640706620285</v>
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.583766814929788</v>
+        <v>2.583766814929845</v>
       </c>
       <c r="C20">
-        <v>0.815573988915645</v>
+        <v>0.8155739889154177</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2714833489623274</v>
+        <v>0.2714833489623558</v>
       </c>
       <c r="F20">
-        <v>2.299415121486803</v>
+        <v>2.299415121486788</v>
       </c>
       <c r="G20">
-        <v>1.035871784820799</v>
+        <v>1.035871784820813</v>
       </c>
       <c r="H20">
-        <v>0.6212730050325845</v>
+        <v>0.6212730050325774</v>
       </c>
       <c r="I20">
-        <v>0.05865891746883811</v>
+        <v>0.05865891746885232</v>
       </c>
       <c r="J20">
-        <v>0.777015505725366</v>
+        <v>0.7770155057253589</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.185435804709009</v>
+        <v>1.185435804709016</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.931531116537315</v>
+        <v>2.931531116537258</v>
       </c>
       <c r="C21">
-        <v>0.9280986594283149</v>
+        <v>0.9280986594283434</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3087947804896416</v>
+        <v>0.3087947804896345</v>
       </c>
       <c r="F21">
-        <v>2.615151889860613</v>
+        <v>2.615151889860641</v>
       </c>
       <c r="G21">
-        <v>1.152389542797025</v>
+        <v>1.152389542797039</v>
       </c>
       <c r="H21">
         <v>0.6741950442925386</v>
       </c>
       <c r="I21">
-        <v>0.05545696425827629</v>
+        <v>0.05545696425828872</v>
       </c>
       <c r="J21">
-        <v>0.8823022305505077</v>
+        <v>0.8823022305505219</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.162331552630917</v>
+        <v>3.162331552630974</v>
       </c>
       <c r="C22">
-        <v>1.003158769518592</v>
+        <v>1.003158769518251</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3336486531081491</v>
+        <v>0.3336486531081704</v>
       </c>
       <c r="F22">
-        <v>2.827429992485065</v>
+        <v>2.827429992485037</v>
       </c>
       <c r="G22">
-        <v>1.232888561004458</v>
+        <v>1.232888561004472</v>
       </c>
       <c r="H22">
         <v>0.7116776833902136</v>
       </c>
       <c r="I22">
-        <v>0.05365362090412162</v>
+        <v>0.0536536209041234</v>
       </c>
       <c r="J22">
         <v>0.9522720601563321</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.455239050528988</v>
+        <v>1.455239050529002</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,7 +1213,7 @@
         <v>3.038792285033423</v>
       </c>
       <c r="C23">
-        <v>0.9629437252020239</v>
+        <v>0.9629437252020807</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1222,19 +1222,19 @@
         <v>0.3203366164555845</v>
       </c>
       <c r="F23">
-        <v>2.713542402432921</v>
+        <v>2.713542402432893</v>
       </c>
       <c r="G23">
-        <v>1.189493943754883</v>
+        <v>1.189493943754869</v>
       </c>
       <c r="H23">
         <v>0.6913869807084723</v>
       </c>
       <c r="I23">
-        <v>0.05458771773169069</v>
+        <v>0.05458771773168891</v>
       </c>
       <c r="J23">
-        <v>0.9148102969387395</v>
+        <v>0.9148102969387253</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1260,25 +1260,25 @@
         <v>0.2708805363385878</v>
       </c>
       <c r="F24">
-        <v>2.294344267238642</v>
+        <v>2.294344267238657</v>
       </c>
       <c r="G24">
-        <v>1.034033768806012</v>
+        <v>1.034033768805998</v>
       </c>
       <c r="H24">
-        <v>0.6204525156786431</v>
+        <v>0.6204525156786502</v>
       </c>
       <c r="I24">
-        <v>0.05871573444937361</v>
+        <v>0.05871573444937539</v>
       </c>
       <c r="J24">
-        <v>0.7753117683051727</v>
+        <v>0.7753117683051585</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.18281503181592</v>
+        <v>1.182815031815906</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.09314843126009</v>
+        <v>2.093148431260062</v>
       </c>
       <c r="C25">
-        <v>0.6579862200607351</v>
+        <v>0.6579862200606215</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2191636224755058</v>
+        <v>0.2191636224754987</v>
       </c>
       <c r="F25">
-        <v>1.863164447981518</v>
+        <v>1.863164447981532</v>
       </c>
       <c r="G25">
-        <v>0.8820119092559082</v>
+        <v>0.8820119092559224</v>
       </c>
       <c r="H25">
         <v>0.5544885535936572</v>
       </c>
       <c r="I25">
-        <v>0.06424014037317782</v>
+        <v>0.06424014037320003</v>
       </c>
       <c r="J25">
-        <v>0.6287671632667085</v>
+        <v>0.6287671632667156</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.9575774354182727</v>
+        <v>0.9575774354182869</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.74315663020954</v>
+        <v>1.743102455738494</v>
       </c>
       <c r="C2">
-        <v>0.5463903801226309</v>
+        <v>0.5460559250738015</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1821067604589075</v>
+        <v>0.1823215151600834</v>
       </c>
       <c r="F2">
-        <v>1.559370350146651</v>
+        <v>1.558481701925615</v>
       </c>
       <c r="G2">
-        <v>0.7806505784319455</v>
+        <v>0.2411770339827086</v>
       </c>
       <c r="H2">
-        <v>0.513177925676203</v>
+        <v>0.5419518872086542</v>
       </c>
       <c r="I2">
-        <v>0.06907139836499887</v>
+        <v>0.512065140526083</v>
       </c>
       <c r="J2">
-        <v>0.5232164121728786</v>
+        <v>0.06896081801907883</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5231116651333849</v>
       </c>
       <c r="L2">
-        <v>0.7956158462974727</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.7958201079298988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.509048077798383</v>
+        <v>1.509020228752718</v>
       </c>
       <c r="C3">
-        <v>0.4721252549034887</v>
+        <v>0.4718427320924832</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1574660417879414</v>
+        <v>0.157654886009702</v>
       </c>
       <c r="F3">
-        <v>1.360126115099391</v>
+        <v>1.359343150702017</v>
       </c>
       <c r="G3">
-        <v>0.7173052320668489</v>
+        <v>0.2175956834064863</v>
       </c>
       <c r="H3">
-        <v>0.4889284207584979</v>
+        <v>0.5024311276010209</v>
       </c>
       <c r="I3">
-        <v>0.0727563952899013</v>
+        <v>0.4879212294964574</v>
       </c>
       <c r="J3">
-        <v>0.4527091642828012</v>
+        <v>0.07265128388187581</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4526242602011195</v>
       </c>
       <c r="L3">
-        <v>0.6875849485219305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.687768894720918</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.366434782651538</v>
+        <v>1.366420832684582</v>
       </c>
       <c r="C4">
-        <v>0.4270345220558625</v>
+        <v>0.4267828098819848</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1425215604149983</v>
+        <v>0.1426946378441656</v>
       </c>
       <c r="F4">
-        <v>1.240507153312123</v>
+        <v>1.239787857540051</v>
       </c>
       <c r="G4">
-        <v>0.6806842012616912</v>
+        <v>0.2038401815589452</v>
       </c>
       <c r="H4">
-        <v>0.4756585345863584</v>
+        <v>0.479711205341502</v>
       </c>
       <c r="I4">
-        <v>0.07520292830229725</v>
+        <v>0.4747147411112707</v>
       </c>
       <c r="J4">
-        <v>0.4097954499809404</v>
+        <v>0.07510089696199795</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4097219609739611</v>
       </c>
       <c r="L4">
-        <v>0.6219071677562695</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.6220779801363179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.308550564821587</v>
+        <v>1.308541779629564</v>
       </c>
       <c r="C5">
-        <v>0.4087653877432729</v>
+        <v>0.4085260006925466</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1364715493394115</v>
+        <v>0.1366382316326273</v>
       </c>
       <c r="F5">
-        <v>1.192369060733299</v>
+        <v>1.191675458543841</v>
       </c>
       <c r="G5">
-        <v>0.6662827899866741</v>
+        <v>0.1983996646752217</v>
       </c>
       <c r="H5">
-        <v>0.4706269033888759</v>
+        <v>0.4708088336371858</v>
       </c>
       <c r="I5">
-        <v>0.07624363560954084</v>
+        <v>0.4697086336230925</v>
       </c>
       <c r="J5">
-        <v>0.3923856805610484</v>
+        <v>0.07614279661993617</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3923166756587406</v>
       </c>
       <c r="L5">
-        <v>0.5952803022089483</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.5954456144726379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.298951485096012</v>
+        <v>1.298943529289659</v>
       </c>
       <c r="C6">
-        <v>0.4057375826909322</v>
+        <v>0.4055002293994505</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1354691823824226</v>
+        <v>0.1356348044135487</v>
       </c>
       <c r="F6">
-        <v>1.184410349716401</v>
+        <v>1.183721000219847</v>
       </c>
       <c r="G6">
-        <v>0.6639215883472787</v>
+        <v>0.1975057614937796</v>
       </c>
       <c r="H6">
-        <v>0.4698132406955011</v>
+        <v>0.4693512072310853</v>
       </c>
       <c r="I6">
-        <v>0.07641901560083664</v>
+        <v>0.4688991916877114</v>
       </c>
       <c r="J6">
-        <v>0.3894990320835419</v>
+        <v>0.07631837100100647</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3894307623428404</v>
       </c>
       <c r="L6">
-        <v>0.5908664774905432</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.591030868016226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.365653263298611</v>
+        <v>1.365639384918836</v>
       </c>
       <c r="C7">
-        <v>0.4267877380921448</v>
+        <v>0.4265361930215477</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1424398142493004</v>
+        <v>0.1426128053176114</v>
       </c>
       <c r="F7">
-        <v>1.239855582304529</v>
+        <v>1.239136633996182</v>
       </c>
       <c r="G7">
-        <v>0.6804879284020942</v>
+        <v>0.2037661624530642</v>
       </c>
       <c r="H7">
-        <v>0.4755891936767611</v>
+        <v>0.4795897439773356</v>
       </c>
       <c r="I7">
-        <v>0.0752167897753333</v>
+        <v>0.4746457456215509</v>
       </c>
       <c r="J7">
-        <v>0.4095603619333517</v>
+        <v>0.07511477476092931</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4094869340471234</v>
       </c>
       <c r="L7">
-        <v>0.6215475465502038</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.6217182853305516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.66216851086827</v>
+        <v>1.662123927956884</v>
       </c>
       <c r="C8">
-        <v>0.5206643559047279</v>
+        <v>0.5203480557740932</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1735681487996956</v>
+        <v>0.1737739363983692</v>
       </c>
       <c r="F8">
-        <v>1.490059466539691</v>
+        <v>1.489207546865117</v>
       </c>
       <c r="G8">
-        <v>0.7583061928706414</v>
+        <v>0.2328853857842219</v>
       </c>
       <c r="H8">
-        <v>0.5044610366607145</v>
+        <v>0.5279838745927421</v>
       </c>
       <c r="I8">
-        <v>0.07030221784603174</v>
+        <v>0.5033849902490743</v>
       </c>
       <c r="J8">
-        <v>0.4988162889566539</v>
+        <v>0.07019358534657094</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4987185595074166</v>
       </c>
       <c r="L8">
-        <v>0.758214197741701</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.7584116030730641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.255219594431935</v>
+        <v>2.255093262412004</v>
       </c>
       <c r="C9">
-        <v>0.7098946221227322</v>
+        <v>0.7094407657300508</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2364021906574294</v>
+        <v>0.236673705140177</v>
       </c>
       <c r="F9">
-        <v>2.006010954520818</v>
+        <v>2.00488573230912</v>
       </c>
       <c r="G9">
-        <v>0.9313989170593544</v>
+        <v>0.2965678173660109</v>
       </c>
       <c r="H9">
-        <v>0.5754687063429103</v>
+        <v>0.636760134880646</v>
       </c>
       <c r="I9">
-        <v>0.06225099520673361</v>
+        <v>0.5741186869675445</v>
       </c>
       <c r="J9">
-        <v>0.6777024761569379</v>
+        <v>0.06212682060787245</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6775496924272844</v>
       </c>
       <c r="L9">
-        <v>1.032747270400641</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.032990804125625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.702068402532348</v>
+        <v>2.701863188798484</v>
       </c>
       <c r="C10">
-        <v>0.8537753554313952</v>
+        <v>0.8532107509458626</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2841563340421658</v>
+        <v>0.2844774254872888</v>
       </c>
       <c r="F10">
-        <v>2.406247042543413</v>
+        <v>2.404908749578624</v>
       </c>
       <c r="G10">
-        <v>1.074845768637914</v>
+        <v>0.3486595302674402</v>
       </c>
       <c r="H10">
-        <v>0.6387813772964535</v>
+        <v>0.7276173253277847</v>
       </c>
       <c r="I10">
-        <v>0.05750256960664757</v>
+        <v>0.637217507782637</v>
       </c>
       <c r="J10">
-        <v>0.8128126000782743</v>
+        <v>0.05736483523364377</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.8126127839641342</v>
       </c>
       <c r="L10">
-        <v>1.240510779118296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.240782936364553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.908802679019971</v>
+        <v>2.908555975977436</v>
       </c>
       <c r="C11">
-        <v>0.9207235063260555</v>
+        <v>0.92010555675148</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3063510652256909</v>
+        <v>0.3066950927940795</v>
       </c>
       <c r="F11">
-        <v>2.594362691385811</v>
+        <v>2.592923547349415</v>
       </c>
       <c r="G11">
-        <v>1.144596438324101</v>
+        <v>0.3738367764741213</v>
       </c>
       <c r="H11">
-        <v>0.6706036076857771</v>
+        <v>0.7719546036598217</v>
       </c>
       <c r="I11">
-        <v>0.05564819046924896</v>
+        <v>0.6689386478635484</v>
       </c>
       <c r="J11">
-        <v>0.8754159231346677</v>
+        <v>0.05550366807600149</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.8751927295604673</v>
       </c>
       <c r="L11">
-        <v>1.336871648954599</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.337155269641826</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.987682573725237</v>
+        <v>2.987419202561568</v>
       </c>
       <c r="C12">
-        <v>0.9463319107570385</v>
+        <v>0.9456932493022521</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3148350515189051</v>
+        <v>0.3151878287234169</v>
       </c>
       <c r="F12">
-        <v>2.666601991980997</v>
+        <v>2.665123967875672</v>
       </c>
       <c r="G12">
-        <v>1.171746808915216</v>
+        <v>0.3836147430560573</v>
       </c>
       <c r="H12">
-        <v>0.6831452717923412</v>
+        <v>0.7892359442528232</v>
       </c>
       <c r="I12">
-        <v>0.05499510562984788</v>
+        <v>0.6814413777319501</v>
       </c>
       <c r="J12">
-        <v>0.8993182427325479</v>
+        <v>0.05484790828264252</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.899085856910105</v>
       </c>
       <c r="L12">
-        <v>1.373676381174761</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.373964076362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.970666292981662</v>
+        <v>2.970406556821331</v>
       </c>
       <c r="C13">
-        <v>0.9408045548865971</v>
+        <v>0.9401703783369157</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3130041471128493</v>
+        <v>0.3133550369179829</v>
       </c>
       <c r="F13">
-        <v>2.650997006740511</v>
+        <v>2.64952738907013</v>
       </c>
       <c r="G13">
-        <v>1.165865135455505</v>
+        <v>0.3814975021231533</v>
       </c>
       <c r="H13">
-        <v>0.6804213716923684</v>
+        <v>0.7854912012922739</v>
       </c>
       <c r="I13">
-        <v>0.05513348381284011</v>
+        <v>0.6787258937443781</v>
       </c>
       <c r="J13">
-        <v>0.8941611958821341</v>
+        <v>0.05498686748316217</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.8939308058466651</v>
       </c>
       <c r="L13">
-        <v>1.36573496982524</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.366021800105116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.915279674633382</v>
+        <v>2.915031620424656</v>
       </c>
       <c r="C14">
-        <v>0.9228249267733588</v>
+        <v>0.9222052839990624</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3070473872094368</v>
+        <v>0.3073921332739289</v>
       </c>
       <c r="F14">
-        <v>2.600284915575344</v>
+        <v>2.59884258747573</v>
       </c>
       <c r="G14">
-        <v>1.146814779854566</v>
+        <v>0.3746361368659734</v>
       </c>
       <c r="H14">
-        <v>0.6716252220463588</v>
+        <v>0.7733661274300232</v>
       </c>
       <c r="I14">
-        <v>0.0555934439179655</v>
+        <v>0.6699570728432818</v>
       </c>
       <c r="J14">
-        <v>0.8773782618464878</v>
+        <v>0.05544870364547805</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.8771543191725897</v>
       </c>
       <c r="L14">
-        <v>1.339892981652113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.340176943161524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.881434202602804</v>
+        <v>2.881193174408224</v>
       </c>
       <c r="C15">
-        <v>0.9118466195340886</v>
+        <v>0.9112358097954427</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.303409395536427</v>
+        <v>0.3037503870280318</v>
       </c>
       <c r="F15">
-        <v>2.569357296911392</v>
+        <v>2.567931590518612</v>
       </c>
       <c r="G15">
-        <v>1.135244786480158</v>
+        <v>0.3704660976742105</v>
       </c>
       <c r="H15">
-        <v>0.6663031083169457</v>
+        <v>0.7660051020875045</v>
       </c>
       <c r="I15">
-        <v>0.05588174676816138</v>
+        <v>0.6646516102313669</v>
       </c>
       <c r="J15">
-        <v>0.8671247357200684</v>
+        <v>0.055738141530286</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.8669046962325666</v>
       </c>
       <c r="L15">
-        <v>1.324106593635989</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.324388761850599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.688635457692726</v>
+        <v>2.688432830208342</v>
       </c>
       <c r="C16">
-        <v>0.8494336706863521</v>
+        <v>0.8488724857961927</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2827162972490882</v>
+        <v>0.2830358982406409</v>
       </c>
       <c r="F16">
-        <v>2.394086070443208</v>
+        <v>2.392754279095044</v>
       </c>
       <c r="G16">
-        <v>1.070385387101553</v>
+        <v>0.3470464960162474</v>
       </c>
       <c r="H16">
-        <v>0.6367672194025289</v>
+        <v>0.7247851958958478</v>
       </c>
       <c r="I16">
-        <v>0.0576303345196898</v>
+        <v>0.635209871049419</v>
       </c>
       <c r="J16">
-        <v>0.8087469126147155</v>
+        <v>0.05749303003161366</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.8085485799011707</v>
       </c>
       <c r="L16">
-        <v>1.234254636589824</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.234526009866812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.571311153020986</v>
+        <v>2.571130547152507</v>
       </c>
       <c r="C17">
-        <v>0.8115564686041239</v>
+        <v>0.8110249110426935</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2701502635345818</v>
+        <v>0.2704568465882673</v>
       </c>
       <c r="F17">
-        <v>2.288202546582028</v>
+        <v>2.286927280937093</v>
       </c>
       <c r="G17">
-        <v>1.031809067127668</v>
+        <v>0.3330794420360235</v>
       </c>
       <c r="H17">
-        <v>0.6194600573079256</v>
+        <v>0.7003081895174716</v>
       </c>
       <c r="I17">
-        <v>0.05878478801114895</v>
+        <v>0.617959420835767</v>
       </c>
       <c r="J17">
-        <v>0.7732476654691709</v>
+        <v>0.05865117993022473</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.7730621051345068</v>
       </c>
       <c r="L17">
-        <v>1.179639987162204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.179904311202286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.50414862767235</v>
+        <v>2.503980170729108</v>
       </c>
       <c r="C18">
-        <v>0.789908559455057</v>
+        <v>0.7893937694254589</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2629661945183344</v>
+        <v>0.2632653254929878</v>
       </c>
       <c r="F18">
-        <v>2.227861356301247</v>
+        <v>2.226618242033197</v>
       </c>
       <c r="G18">
-        <v>1.010038141104033</v>
+        <v>0.3251832517087507</v>
       </c>
       <c r="H18">
-        <v>0.6097860104613133</v>
+        <v>0.686508637303433</v>
       </c>
       <c r="I18">
-        <v>0.0594772239864092</v>
+        <v>0.6083176418640903</v>
       </c>
       <c r="J18">
-        <v>0.7529347299765092</v>
+        <v>0.05934568471195512</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.7527563331303995</v>
       </c>
       <c r="L18">
-        <v>1.148397785373106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.148657911215757</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.481460634135942</v>
+        <v>2.4812962059857</v>
       </c>
       <c r="C19">
-        <v>0.7826014784232882</v>
+        <v>0.7820923210292108</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2605409449797023</v>
+        <v>0.2608375586383005</v>
       </c>
       <c r="F19">
-        <v>2.207523223601143</v>
+        <v>2.206290936783176</v>
       </c>
       <c r="G19">
-        <v>1.002735931432014</v>
+        <v>0.322532430945401</v>
       </c>
       <c r="H19">
-        <v>0.6065571076238996</v>
+        <v>0.6818825588195097</v>
       </c>
       <c r="I19">
-        <v>0.05971640706620285</v>
+        <v>0.6050996070085048</v>
       </c>
       <c r="J19">
-        <v>0.7460742970411474</v>
+        <v>0.05958555884807204</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.7458982957577049</v>
       </c>
       <c r="L19">
-        <v>1.137847622859475</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.138106303767337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.583766814929845</v>
+        <v>2.583583919383329</v>
       </c>
       <c r="C20">
-        <v>0.8155739889154177</v>
+        <v>0.8150393063364163</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2714833489623558</v>
+        <v>0.2717913140604296</v>
       </c>
       <c r="F20">
-        <v>2.299415121486788</v>
+        <v>2.298133876761455</v>
       </c>
       <c r="G20">
-        <v>1.035871784820813</v>
+        <v>0.3345518368359421</v>
       </c>
       <c r="H20">
-        <v>0.6212730050325774</v>
+        <v>0.7028845268734045</v>
       </c>
       <c r="I20">
-        <v>0.05865891746885232</v>
+        <v>0.6197663685580537</v>
       </c>
       <c r="J20">
-        <v>0.7770155057253589</v>
+        <v>0.05852492192995662</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.7768286050426099</v>
       </c>
       <c r="L20">
-        <v>1.185435804709016</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.18570089430532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.931531116537258</v>
+        <v>2.931279658351457</v>
       </c>
       <c r="C21">
-        <v>0.9280986594283434</v>
+        <v>0.927474762348993</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3087947804896345</v>
+        <v>0.3091413293006937</v>
       </c>
       <c r="F21">
-        <v>2.615151889860641</v>
+        <v>2.613701565985252</v>
       </c>
       <c r="G21">
-        <v>1.152389542797039</v>
+        <v>0.3766446014294047</v>
       </c>
       <c r="H21">
-        <v>0.6741950442925386</v>
+        <v>0.7769136987324146</v>
       </c>
       <c r="I21">
-        <v>0.05545696425828872</v>
+        <v>0.6725188866361691</v>
       </c>
       <c r="J21">
-        <v>0.8823022305505219</v>
+        <v>0.05531167591271391</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.8820764038283357</v>
       </c>
       <c r="L21">
-        <v>1.347474431117959</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.347759242862693</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.162331552630974</v>
+        <v>3.162029618332724</v>
       </c>
       <c r="C22">
-        <v>1.003158769518251</v>
+        <v>1.002473536284185</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3336486531081704</v>
+        <v>0.3340207976746541</v>
       </c>
       <c r="F22">
-        <v>2.827429992485037</v>
+        <v>2.825865069526373</v>
       </c>
       <c r="G22">
-        <v>1.232888561004472</v>
+        <v>0.4055934198882909</v>
       </c>
       <c r="H22">
-        <v>0.7116776833902136</v>
+        <v>0.8281954982799675</v>
       </c>
       <c r="I22">
-        <v>0.0536536209041234</v>
+        <v>0.709886863036914</v>
       </c>
       <c r="J22">
-        <v>0.9522720601563321</v>
+        <v>0.05350033405808929</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.9520187810361023</v>
       </c>
       <c r="L22">
-        <v>1.455239050529002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.455535173222458</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.038792285033423</v>
+        <v>3.03851786562484</v>
       </c>
       <c r="C23">
-        <v>0.9629437252020807</v>
+        <v>0.9622915370087526</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3203366164555845</v>
+        <v>0.3206950622127778</v>
       </c>
       <c r="F23">
-        <v>2.713542402432893</v>
+        <v>2.712039065243971</v>
       </c>
       <c r="G23">
-        <v>1.189493943754869</v>
+        <v>0.3899999973479567</v>
       </c>
       <c r="H23">
-        <v>0.6913869807084723</v>
+        <v>0.8005385366351732</v>
       </c>
       <c r="I23">
-        <v>0.05458771773168891</v>
+        <v>0.6896577515704294</v>
       </c>
       <c r="J23">
-        <v>0.9148102969387253</v>
+        <v>0.05443876213632137</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.9145718741651052</v>
       </c>
       <c r="L23">
-        <v>1.397534769093781</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.39782501546425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.578134717840555</v>
+        <v>2.577952859040067</v>
       </c>
       <c r="C24">
-        <v>0.8137572717387798</v>
+        <v>0.8132240028014337</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2708805363385878</v>
+        <v>0.2711878765151425</v>
       </c>
       <c r="F24">
-        <v>2.294344267238657</v>
+        <v>2.293065726724038</v>
       </c>
       <c r="G24">
-        <v>1.034033768805998</v>
+        <v>0.3338857531370536</v>
       </c>
       <c r="H24">
-        <v>0.6204525156786502</v>
+        <v>0.7017189200610119</v>
       </c>
       <c r="I24">
-        <v>0.05871573444937539</v>
+        <v>0.6189485928456406</v>
       </c>
       <c r="J24">
-        <v>0.7753117683051585</v>
+        <v>0.05858191425447856</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.7751254741489433</v>
       </c>
       <c r="L24">
-        <v>1.182815031815906</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.183079775754329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.093148431260062</v>
+        <v>2.09304706143655</v>
       </c>
       <c r="C25">
-        <v>0.6579862200606215</v>
+        <v>0.6575710168629598</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2191636224754987</v>
+        <v>0.219417162716546</v>
       </c>
       <c r="F25">
-        <v>1.863164447981532</v>
+        <v>1.862114941518527</v>
       </c>
       <c r="G25">
-        <v>0.8820119092559224</v>
+        <v>0.2785101537737376</v>
       </c>
       <c r="H25">
-        <v>0.5544885535936572</v>
+        <v>0.6056071486539452</v>
       </c>
       <c r="I25">
-        <v>0.06424014037320003</v>
+        <v>0.5532145312900809</v>
       </c>
       <c r="J25">
-        <v>0.6287671632667156</v>
+        <v>0.06412049976039924</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6286302626409821</v>
       </c>
       <c r="L25">
-        <v>0.9575774354182869</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0.9578092918536072</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.743102455738494</v>
+        <v>1.881981488095562</v>
       </c>
       <c r="C2">
-        <v>0.5460559250738015</v>
+        <v>0.2633425070226991</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1823215151600834</v>
+        <v>0.02751461683531065</v>
       </c>
       <c r="F2">
-        <v>1.558481701925615</v>
+        <v>2.59303920896744</v>
       </c>
       <c r="G2">
-        <v>0.2411770339827086</v>
+        <v>0.0008395244723150221</v>
       </c>
       <c r="H2">
-        <v>0.5419518872086542</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.512065140526083</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06896081801907883</v>
+        <v>0.1256849194550576</v>
       </c>
       <c r="K2">
-        <v>0.5231116651333849</v>
+        <v>0.4348569049810393</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0960833010725608</v>
       </c>
       <c r="M2">
-        <v>0.7958201079298988</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.3045132436742293</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>2.09474085693796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.509020228752718</v>
+        <v>1.644578111910647</v>
       </c>
       <c r="C3">
-        <v>0.4718427320924832</v>
+        <v>0.2306515026888718</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.157654886009702</v>
+        <v>0.02725865007824013</v>
       </c>
       <c r="F3">
-        <v>1.359343150702017</v>
+        <v>2.426768160753696</v>
       </c>
       <c r="G3">
-        <v>0.2175956834064863</v>
+        <v>0.0008473554024425368</v>
       </c>
       <c r="H3">
-        <v>0.5024311276010209</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4879212294964574</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07265128388187581</v>
+        <v>0.1270691500015459</v>
       </c>
       <c r="K3">
-        <v>0.4526242602011195</v>
+        <v>0.3765657231342416</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.08843507664622763</v>
       </c>
       <c r="M3">
-        <v>0.687768894720918</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.2684371319495895</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.958257698541743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.366420832684582</v>
+        <v>1.501304715111644</v>
       </c>
       <c r="C4">
-        <v>0.4267828098819848</v>
+        <v>0.2107823332840013</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1426946378441656</v>
+        <v>0.02711707495357096</v>
       </c>
       <c r="F4">
-        <v>1.239787857540051</v>
+        <v>2.328360619300412</v>
       </c>
       <c r="G4">
-        <v>0.2038401815589452</v>
+        <v>0.0008522984710833681</v>
       </c>
       <c r="H4">
-        <v>0.479711205341502</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4747147411112707</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07510089696199795</v>
+        <v>0.127983398131537</v>
       </c>
       <c r="K4">
-        <v>0.4097219609739611</v>
+        <v>0.3413208583149157</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.08385196157430386</v>
       </c>
       <c r="M4">
-        <v>0.6220779801363179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.246683059497105</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.877598405801777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.308541779629564</v>
+        <v>1.443476876623862</v>
       </c>
       <c r="C5">
-        <v>0.4085260006925466</v>
+        <v>0.202725692746796</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1366382316326273</v>
+        <v>0.02706298285554276</v>
       </c>
       <c r="F5">
-        <v>1.191675458543841</v>
+        <v>2.28911324302122</v>
       </c>
       <c r="G5">
-        <v>0.1983996646752217</v>
+        <v>0.0008543480111660653</v>
       </c>
       <c r="H5">
-        <v>0.4708088336371858</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4697086336230925</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07614279661993617</v>
+        <v>0.1283712439681786</v>
       </c>
       <c r="K5">
-        <v>0.3923166756587406</v>
+        <v>0.3270781606350965</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.08201128564039806</v>
       </c>
       <c r="M5">
-        <v>0.5954456144726379</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.2379080660101494</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.845453090915626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.298943529289659</v>
+        <v>1.433906327096651</v>
       </c>
       <c r="C6">
-        <v>0.4055002293994505</v>
+        <v>0.2013900204239434</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1356348044135487</v>
+        <v>0.027054209729794</v>
       </c>
       <c r="F6">
-        <v>1.183721000219847</v>
+        <v>2.282645853601139</v>
       </c>
       <c r="G6">
-        <v>0.1975057614937796</v>
+        <v>0.0008546904976607725</v>
       </c>
       <c r="H6">
-        <v>0.4693512072310853</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4688991916877114</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07631837100100647</v>
+        <v>0.1284365438066715</v>
       </c>
       <c r="K6">
-        <v>0.3894307623428404</v>
+        <v>0.324719926588287</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.08170723308310102</v>
       </c>
       <c r="M6">
-        <v>0.591030868016226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.236456146137801</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.840157273182783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.365639384918836</v>
+        <v>1.500522660682776</v>
       </c>
       <c r="C7">
-        <v>0.4265361930215477</v>
+        <v>0.2106735295712241</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1426128053176114</v>
+        <v>0.02711633126465551</v>
       </c>
       <c r="F7">
-        <v>1.239136633996182</v>
+        <v>2.327827946784481</v>
       </c>
       <c r="G7">
-        <v>0.2037661624530642</v>
+        <v>0.0008523259677709267</v>
       </c>
       <c r="H7">
-        <v>0.4795897439773356</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4746457456215509</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07511477476092931</v>
+        <v>0.1279885680034845</v>
       </c>
       <c r="K7">
-        <v>0.4094869340471234</v>
+        <v>0.3411283130564939</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.08382703012150472</v>
       </c>
       <c r="M7">
-        <v>0.6217182853305516</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.2465643650164289</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.877162035205686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.662123927956884</v>
+        <v>1.799563591607523</v>
       </c>
       <c r="C8">
-        <v>0.5203480557740932</v>
+        <v>0.2520216104318251</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1737739363983692</v>
+        <v>0.02742292011695346</v>
       </c>
       <c r="F8">
-        <v>1.489207546865117</v>
+        <v>2.534899558825884</v>
       </c>
       <c r="G8">
-        <v>0.2328853857842219</v>
+        <v>0.000842197396210428</v>
       </c>
       <c r="H8">
-        <v>0.5279838745927421</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5033849902490743</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07019358534657094</v>
+        <v>0.1261482900669648</v>
       </c>
       <c r="K8">
-        <v>0.4987185595074166</v>
+        <v>0.4146337870733561</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.09342186620295934</v>
       </c>
       <c r="M8">
-        <v>0.7584116030730641</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.2919856878482534</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>2.046988020348806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.255093262412004</v>
+        <v>2.409236145042598</v>
       </c>
       <c r="C9">
-        <v>0.7094407657300508</v>
+        <v>0.3352634485592318</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.236673705140177</v>
+        <v>0.02816438396882137</v>
       </c>
       <c r="F9">
-        <v>2.00488573230912</v>
+        <v>2.973734088851074</v>
       </c>
       <c r="G9">
-        <v>0.2965678173660109</v>
+        <v>0.0008233416688047855</v>
       </c>
       <c r="H9">
-        <v>0.636760134880646</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5741186869675445</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06212682060787245</v>
+        <v>0.1230944195324604</v>
       </c>
       <c r="K9">
-        <v>0.6775496924272844</v>
+        <v>0.5639818960650871</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1132042284709627</v>
       </c>
       <c r="M9">
-        <v>1.032990804125625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.3846937296681361</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.408210587191903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.701863188798484</v>
+        <v>2.876724181224517</v>
       </c>
       <c r="C10">
-        <v>0.8532107509458626</v>
+        <v>0.3985901365699362</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2844774254872888</v>
+        <v>0.02882154810542836</v>
       </c>
       <c r="F10">
-        <v>2.404908749578624</v>
+        <v>3.32156406277943</v>
       </c>
       <c r="G10">
-        <v>0.3486595302674402</v>
+        <v>0.0008100043652338474</v>
       </c>
       <c r="H10">
-        <v>0.7276173253277847</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.637217507782637</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05736483523364377</v>
+        <v>0.1212586405928207</v>
       </c>
       <c r="K10">
-        <v>0.8126127839641342</v>
+        <v>0.6782329800497351</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1284378799552286</v>
       </c>
       <c r="M10">
-        <v>1.240782936364553</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.4557804817662188</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.695819770034021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.908555975977436</v>
+        <v>3.095010193631481</v>
       </c>
       <c r="C11">
-        <v>0.92010555675148</v>
+        <v>0.4280892722171075</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3066950927940795</v>
+        <v>0.02915222221965263</v>
       </c>
       <c r="F11">
-        <v>2.592923547349415</v>
+        <v>3.486688466818606</v>
       </c>
       <c r="G11">
-        <v>0.3738367764741213</v>
+        <v>0.0008040245086045727</v>
       </c>
       <c r="H11">
-        <v>0.7719546036598217</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6689386478635484</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05550366807600149</v>
+        <v>0.1205301869275814</v>
       </c>
       <c r="K11">
-        <v>0.8751927295604673</v>
+        <v>0.7315352582351267</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.135547586684325</v>
       </c>
       <c r="M11">
-        <v>1.337155269641826</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.4889569343688152</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.832755984136568</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.987419202561568</v>
+        <v>3.178607044160799</v>
       </c>
       <c r="C12">
-        <v>0.9456932493022521</v>
+        <v>0.4393802509658826</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3151878287234169</v>
+        <v>0.02928273590119868</v>
       </c>
       <c r="F12">
-        <v>2.665123967875672</v>
+        <v>3.550336859986885</v>
       </c>
       <c r="G12">
-        <v>0.3836147430560573</v>
+        <v>0.000801770370883137</v>
       </c>
       <c r="H12">
-        <v>0.7892359442528232</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6814413777319501</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05484790828264252</v>
+        <v>0.1202714494055535</v>
       </c>
       <c r="K12">
-        <v>0.899085856910105</v>
+        <v>0.7519431023970853</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1382682645048519</v>
       </c>
       <c r="M12">
-        <v>1.373964076362</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.5016586086588148</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.885607595420097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.970406556821331</v>
+        <v>3.16055910397057</v>
       </c>
       <c r="C13">
-        <v>0.9401703783369157</v>
+        <v>0.4369428252091438</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3133550369179829</v>
+        <v>0.0292543790071077</v>
       </c>
       <c r="F13">
-        <v>2.64952738907013</v>
+        <v>3.536577061545927</v>
       </c>
       <c r="G13">
-        <v>0.3814975021231533</v>
+        <v>0.0008022554203091183</v>
       </c>
       <c r="H13">
-        <v>0.7854912012922739</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6787258937443781</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05498686748316217</v>
+        <v>0.1203263811523563</v>
       </c>
       <c r="K13">
-        <v>0.8939308058466651</v>
+        <v>0.7475374137286863</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1376810122497147</v>
       </c>
       <c r="M13">
-        <v>1.366021800105116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.4989166103281946</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.874178666472503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.915031620424656</v>
+        <v>3.101868196369253</v>
       </c>
       <c r="C14">
-        <v>0.9222052839990624</v>
+        <v>0.4290156477938467</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3073921332739289</v>
+        <v>0.02916284892293985</v>
       </c>
       <c r="F14">
-        <v>2.59884258747573</v>
+        <v>3.491901639863499</v>
       </c>
       <c r="G14">
-        <v>0.3746361368659734</v>
+        <v>0.0008038388667281267</v>
       </c>
       <c r="H14">
-        <v>0.7733661274300232</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6699570728432818</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05544870364547805</v>
+        <v>0.1205085464292814</v>
       </c>
       <c r="K14">
-        <v>0.8771543191725897</v>
+        <v>0.7332095467627227</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1357708341531705</v>
       </c>
       <c r="M14">
-        <v>1.340176943161524</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.4899990237974592</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.837083405234679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.881193174408224</v>
+        <v>3.066044364181266</v>
       </c>
       <c r="C15">
-        <v>0.9112358097954427</v>
+        <v>0.4241763538530279</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3037503870280318</v>
+        <v>0.02910749739281049</v>
       </c>
       <c r="F15">
-        <v>2.567931590518612</v>
+        <v>3.464686473168541</v>
       </c>
       <c r="G15">
-        <v>0.3704660976742105</v>
+        <v>0.0008048100439512049</v>
       </c>
       <c r="H15">
-        <v>0.7660051020875045</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6646516102313669</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.055738141530286</v>
+        <v>0.1206224133265259</v>
       </c>
       <c r="K15">
-        <v>0.8669046962325666</v>
+        <v>0.7244634380587769</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1346045711897119</v>
       </c>
       <c r="M15">
-        <v>1.324388761850599</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.4845553433661038</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.814495089864167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.688432830208342</v>
+        <v>2.86258243854644</v>
       </c>
       <c r="C16">
-        <v>0.8488724857961927</v>
+        <v>0.3966779366863022</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2830358982406409</v>
+        <v>0.0288006361363532</v>
       </c>
       <c r="F16">
-        <v>2.392754279095044</v>
+        <v>3.310922144076926</v>
       </c>
       <c r="G16">
-        <v>0.3470464960162474</v>
+        <v>0.0008103967333883914</v>
       </c>
       <c r="H16">
-        <v>0.7247851958958478</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.635209871049419</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05749303003161366</v>
+        <v>0.1213085391678668</v>
       </c>
       <c r="K16">
-        <v>0.8085485799011707</v>
+        <v>0.6747789682498535</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1279770725889975</v>
       </c>
       <c r="M16">
-        <v>1.234526009866812</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.4536306805267003</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.687003341162594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.571130547152507</v>
+        <v>2.739291883577152</v>
       </c>
       <c r="C17">
-        <v>0.8110249110426935</v>
+        <v>0.3799996856518533</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2704568465882673</v>
+        <v>0.02862099760768877</v>
       </c>
       <c r="F17">
-        <v>2.286927280937093</v>
+        <v>3.218445208977528</v>
       </c>
       <c r="G17">
-        <v>0.3330794420360235</v>
+        <v>0.0008138448311790933</v>
       </c>
       <c r="H17">
-        <v>0.7003081895174716</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.617959420835767</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05865117993022473</v>
+        <v>0.1217579601419345</v>
       </c>
       <c r="K17">
-        <v>0.7730621051345068</v>
+        <v>0.644661333094021</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1239590927747543</v>
       </c>
       <c r="M17">
-        <v>1.179904311202286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.4348862975908148</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.610434730976706</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.503980170729108</v>
+        <v>2.668899212704446</v>
       </c>
       <c r="C18">
-        <v>0.7893937694254589</v>
+        <v>0.3704704895577322</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2632653254929878</v>
+        <v>0.02852061029148723</v>
       </c>
       <c r="F18">
-        <v>2.226618242033197</v>
+        <v>3.165895437812026</v>
       </c>
       <c r="G18">
-        <v>0.3251832517087507</v>
+        <v>0.0008158364565864034</v>
       </c>
       <c r="H18">
-        <v>0.686508637303433</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6083176418640903</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05934568471195512</v>
+        <v>0.1220263741353946</v>
       </c>
       <c r="K18">
-        <v>0.7527563331303995</v>
+        <v>0.6274613968238469</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1216648184041915</v>
       </c>
       <c r="M18">
-        <v>1.148657911215757</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.4241827859238967</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.566960860242006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.4812962059857</v>
+        <v>2.645151250331082</v>
       </c>
       <c r="C19">
-        <v>0.7820923210292108</v>
+        <v>0.3672544136141482</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2608375586383005</v>
+        <v>0.02848710470007654</v>
       </c>
       <c r="F19">
-        <v>2.206290936783176</v>
+        <v>3.148209330361055</v>
       </c>
       <c r="G19">
-        <v>0.322532430945401</v>
+        <v>0.0008165122891392596</v>
       </c>
       <c r="H19">
-        <v>0.6818825588195097</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6050996070085048</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05958555884807204</v>
+        <v>0.1221189078533449</v>
       </c>
       <c r="K19">
-        <v>0.7458982957577049</v>
+        <v>0.6216579839636722</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1208908226502814</v>
       </c>
       <c r="M19">
-        <v>1.138106303767337</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.4205716050272912</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.552335210058075</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.583583919383329</v>
+        <v>2.752361593381011</v>
       </c>
       <c r="C20">
-        <v>0.8150393063364163</v>
+        <v>0.3817683792806292</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2717913140604296</v>
+        <v>0.02863981163749652</v>
       </c>
       <c r="F20">
-        <v>2.298133876761455</v>
+        <v>3.228222364616784</v>
       </c>
       <c r="G20">
-        <v>0.3345518368359421</v>
+        <v>0.0008134769244526498</v>
       </c>
       <c r="H20">
-        <v>0.7028845268734045</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6197663685580537</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05852492192995662</v>
+        <v>0.121709079843864</v>
       </c>
       <c r="K20">
-        <v>0.7768286050426099</v>
+        <v>0.6478544618793478</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.124385061404567</v>
       </c>
       <c r="M20">
-        <v>1.18570089430532</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.436873498226575</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.618526151600875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.931279658351457</v>
+        <v>3.119080620824548</v>
       </c>
       <c r="C21">
-        <v>0.927474762348993</v>
+        <v>0.4313406074643638</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3091413293006937</v>
+        <v>0.02918958339829036</v>
       </c>
       <c r="F21">
-        <v>2.613701565985252</v>
+        <v>3.504992422780987</v>
       </c>
       <c r="G21">
-        <v>0.3766446014294047</v>
+        <v>0.0008033735096923955</v>
       </c>
       <c r="H21">
-        <v>0.7769136987324146</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6725188866361691</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05531167591271391</v>
+        <v>0.1204545602703497</v>
       </c>
       <c r="K21">
-        <v>0.8820764038283357</v>
+        <v>0.7374116475407462</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.136331107897206</v>
       </c>
       <c r="M21">
-        <v>1.347759242862693</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.4926144242779102</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.847951106446729</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.162029618332724</v>
+        <v>3.364283263817299</v>
       </c>
       <c r="C22">
-        <v>1.002473536284185</v>
+        <v>0.4644518147789825</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3340207976746541</v>
+        <v>0.02958018291447084</v>
       </c>
       <c r="F22">
-        <v>2.825865069526373</v>
+        <v>3.692472484329016</v>
       </c>
       <c r="G22">
-        <v>0.4055934198882909</v>
+        <v>0.0007968291644742126</v>
       </c>
       <c r="H22">
-        <v>0.8281954982799675</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.709886863036914</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05350033405808929</v>
+        <v>0.1197354123950198</v>
       </c>
       <c r="K22">
-        <v>0.9520187810361023</v>
+        <v>0.7972627120340121</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1443053696630656</v>
       </c>
       <c r="M22">
-        <v>1.455535173222458</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.5298613151546476</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>3.003769930439091</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.03851786562484</v>
+        <v>3.232861529580987</v>
       </c>
       <c r="C23">
-        <v>0.9622915370087526</v>
+        <v>0.4467068912410355</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3206950622127778</v>
+        <v>0.02936857483819455</v>
       </c>
       <c r="F23">
-        <v>2.712039065243971</v>
+        <v>3.591761230813091</v>
       </c>
       <c r="G23">
-        <v>0.3899999973479567</v>
+        <v>0.0008003174375614955</v>
       </c>
       <c r="H23">
-        <v>0.8005385366351732</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6896577515704294</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05443876213632137</v>
+        <v>0.1201093626709486</v>
       </c>
       <c r="K23">
-        <v>0.9145718741651052</v>
+        <v>0.7651865266018945</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1400331843506066</v>
       </c>
       <c r="M23">
-        <v>1.39782501546425</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.5099007320531825</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.920025541608211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.577952859040067</v>
+        <v>2.746451264834548</v>
       </c>
       <c r="C24">
-        <v>0.8132240028014337</v>
+        <v>0.3809685695623557</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2711878765151425</v>
+        <v>0.02863129686888899</v>
       </c>
       <c r="F24">
-        <v>2.293065726724038</v>
+        <v>3.223800201930317</v>
       </c>
       <c r="G24">
-        <v>0.3338857531370536</v>
+        <v>0.0008136432260436498</v>
       </c>
       <c r="H24">
-        <v>0.7017189200610119</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6189485928456406</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05858191425447856</v>
+        <v>0.1217311474983731</v>
       </c>
       <c r="K24">
-        <v>0.7751254741489433</v>
+        <v>0.6464104922591432</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.124192432223424</v>
       </c>
       <c r="M24">
-        <v>1.183079775754329</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.4359748591261123</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.614866327141286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.09304706143655</v>
+        <v>2.241291664362564</v>
       </c>
       <c r="C25">
-        <v>0.6575710168629598</v>
+        <v>0.3124309335595115</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.219417162716546</v>
+        <v>0.02794624611455632</v>
       </c>
       <c r="F25">
-        <v>1.862114941518527</v>
+        <v>2.850979925318825</v>
       </c>
       <c r="G25">
-        <v>0.2785101537737376</v>
+        <v>0.0008283444142158276</v>
       </c>
       <c r="H25">
-        <v>0.6056071486539452</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5532145312900809</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06412049976039924</v>
+        <v>0.1238544847393079</v>
       </c>
       <c r="K25">
-        <v>0.6286302626409821</v>
+        <v>0.5228910811493037</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1077383366662445</v>
       </c>
       <c r="M25">
-        <v>0.9578092918536072</v>
+        <v>0.3591508735862305</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.306983064513489</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.881981488095562</v>
+        <v>1.807300763044708</v>
       </c>
       <c r="C2">
-        <v>0.2633425070226991</v>
+        <v>0.3259678316853893</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02751461683531065</v>
+        <v>0.04760452448633234</v>
       </c>
       <c r="F2">
-        <v>2.59303920896744</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0008395244723150221</v>
+        <v>0.2111788717475562</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1960752922503985</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1802056377979078</v>
       </c>
       <c r="J2">
-        <v>0.1256849194550576</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4348569049810393</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0960833010725608</v>
+        <v>0.1573638205361334</v>
       </c>
       <c r="M2">
-        <v>0.3045132436742293</v>
+        <v>0.3245697152116307</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.8386470593342423</v>
       </c>
       <c r="O2">
-        <v>2.09474085693796</v>
+        <v>0.8083168624362571</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.644578111910647</v>
+        <v>1.573883664046036</v>
       </c>
       <c r="C3">
-        <v>0.2306515026888718</v>
+        <v>0.3038910734137374</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02725865007824013</v>
+        <v>0.04917812628717755</v>
       </c>
       <c r="F3">
-        <v>2.426768160753696</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008473554024425368</v>
+        <v>0.1994148072761917</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.1955846813902156</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1860771228267009</v>
       </c>
       <c r="J3">
-        <v>0.1270691500015459</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3765657231342416</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.08843507664622763</v>
+        <v>0.1428958878441904</v>
       </c>
       <c r="M3">
-        <v>0.2684371319495895</v>
+        <v>0.2829196327573626</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.8368522516518269</v>
       </c>
       <c r="O3">
-        <v>1.958257698541743</v>
+        <v>0.7820381255479276</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.501304715111644</v>
+        <v>1.430442553794904</v>
       </c>
       <c r="C4">
-        <v>0.2107823332840013</v>
+        <v>0.2903102166496154</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02711707495357096</v>
+        <v>0.05021939916945506</v>
       </c>
       <c r="F4">
-        <v>2.328360619300412</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008522984710833681</v>
+        <v>0.1927756438825128</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1956699072064083</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1901963060668095</v>
       </c>
       <c r="J4">
-        <v>0.127983398131537</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3413208583149157</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.08385196157430386</v>
+        <v>0.1341663951652095</v>
       </c>
       <c r="M4">
-        <v>0.246683059497105</v>
+        <v>0.2573865741818011</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.8365702562366479</v>
       </c>
       <c r="O4">
-        <v>1.877598405801777</v>
+        <v>0.7679419173363726</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.443476876623862</v>
+        <v>1.371948536419438</v>
       </c>
       <c r="C5">
-        <v>0.202725692746796</v>
+        <v>0.2847689818760131</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02706298285554276</v>
+        <v>0.05066226347651703</v>
       </c>
       <c r="F5">
-        <v>2.28911324302122</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008543480111660653</v>
+        <v>0.1902089737331565</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.1957982734917039</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1919995002838064</v>
       </c>
       <c r="J5">
-        <v>0.1283712439681786</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3270781606350965</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.08201128564039806</v>
+        <v>0.1306455798239838</v>
       </c>
       <c r="M5">
-        <v>0.2379080660101494</v>
+        <v>0.2469892967665466</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.8366559895298522</v>
       </c>
       <c r="O5">
-        <v>1.845453090915626</v>
+        <v>0.7626859127716017</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.433906327096651</v>
+        <v>1.362232920224102</v>
       </c>
       <c r="C6">
-        <v>0.2013900204239434</v>
+        <v>0.2838484328174644</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.027054209729794</v>
+        <v>0.05073691056676566</v>
       </c>
       <c r="F6">
-        <v>2.282645853601139</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0008546904976607725</v>
+        <v>0.189790937719664</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.1958251431527955</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.1923063111365639</v>
       </c>
       <c r="J6">
-        <v>0.1284365438066715</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.324719926588287</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.08170723308310102</v>
+        <v>0.1300630954041466</v>
       </c>
       <c r="M6">
-        <v>0.236456146137801</v>
+        <v>0.2452632292804218</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.8366821868084031</v>
       </c>
       <c r="O6">
-        <v>1.840157273182783</v>
+        <v>0.7618419550438489</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.500522660682776</v>
+        <v>1.4296538600384</v>
       </c>
       <c r="C7">
-        <v>0.2106735295712241</v>
+        <v>0.2902355142551727</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02711633126465551</v>
+        <v>0.0502252971793089</v>
       </c>
       <c r="F7">
-        <v>2.327827946784481</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0008523259677709267</v>
+        <v>0.1927404770555654</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.1956712638456324</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.190220126145741</v>
       </c>
       <c r="J7">
-        <v>0.1279885680034845</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3411283130564939</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.08382703012150472</v>
+        <v>0.1341187671345736</v>
       </c>
       <c r="M7">
-        <v>0.2465643650164289</v>
+        <v>0.2572463250511561</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.8365706071899126</v>
       </c>
       <c r="O7">
-        <v>1.877162035205686</v>
+        <v>0.7678690873978411</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.799563591607523</v>
+        <v>1.726837652638608</v>
       </c>
       <c r="C8">
-        <v>0.2520216104318251</v>
+        <v>0.3183607758337672</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02742292011695346</v>
+        <v>0.04813131252847036</v>
       </c>
       <c r="F8">
-        <v>2.534899558825884</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.000842197396210428</v>
+        <v>0.206996481395592</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.1958237408497894</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.1821205651797495</v>
       </c>
       <c r="J8">
-        <v>0.1261482900669648</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4146337870733561</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.09342186620295934</v>
+        <v>0.1523420013064296</v>
       </c>
       <c r="M8">
-        <v>0.2919856878482534</v>
+        <v>0.3101988675699658</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.83785458773513</v>
       </c>
       <c r="O8">
-        <v>2.046988020348806</v>
+        <v>0.7988177359747937</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.409236145042598</v>
+        <v>2.309152807786802</v>
       </c>
       <c r="C9">
-        <v>0.3352634485592318</v>
+        <v>0.373337920004758</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.02816438396882137</v>
+        <v>0.04463643954952268</v>
       </c>
       <c r="F9">
-        <v>2.973734088851074</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0008233416688047855</v>
+        <v>0.2399651326994032</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1993564257844582</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1705350889696113</v>
       </c>
       <c r="J9">
-        <v>0.1230944195324604</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5639818960650871</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1132042284709627</v>
+        <v>0.1894028273990287</v>
       </c>
       <c r="M9">
-        <v>0.3846937296681361</v>
+        <v>0.4144814913637731</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.8471434427120244</v>
       </c>
       <c r="O9">
-        <v>2.408210587191903</v>
+        <v>0.8768405183016483</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.876724181224517</v>
+        <v>2.737493270857271</v>
       </c>
       <c r="C10">
-        <v>0.3985901365699362</v>
+        <v>0.4136677978165153</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.02882154810542836</v>
+        <v>0.04246389048803767</v>
       </c>
       <c r="F10">
-        <v>3.32156406277943</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0008100043652338474</v>
+        <v>0.2677959560964354</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.2041671813413899</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.164959797637767</v>
       </c>
       <c r="J10">
-        <v>0.1212586405928207</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6782329800497351</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1284378799552286</v>
+        <v>0.2175934968289823</v>
       </c>
       <c r="M10">
-        <v>0.4557804817662188</v>
+        <v>0.4915571209227139</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.858483877176397</v>
       </c>
       <c r="O10">
-        <v>2.695819770034021</v>
+        <v>0.9464139911268035</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.095010193631481</v>
+        <v>2.932660108846278</v>
       </c>
       <c r="C11">
-        <v>0.4280892722171075</v>
+        <v>0.4320130699518927</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.02915222221965263</v>
+        <v>0.04156645290653938</v>
       </c>
       <c r="F11">
-        <v>3.486688466818606</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0008040245086045727</v>
+        <v>0.2813698541656464</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.2068938506719604</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1631346960437412</v>
       </c>
       <c r="J11">
-        <v>0.1205301869275814</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7315352582351267</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.135547586684325</v>
+        <v>0.2306632365237533</v>
       </c>
       <c r="M11">
-        <v>0.4889569343688152</v>
+        <v>0.5267657559236696</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.8647145946489445</v>
       </c>
       <c r="O11">
-        <v>2.832755984136568</v>
+        <v>0.9811186855291112</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.178607044160799</v>
+        <v>3.006625979171304</v>
       </c>
       <c r="C12">
-        <v>0.4393802509658826</v>
+        <v>0.4389607855696909</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.02928273590119868</v>
+        <v>0.04124013044349972</v>
       </c>
       <c r="F12">
-        <v>3.550336859986885</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.000801770370883137</v>
+        <v>0.2866526991246872</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2080088158026143</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1625523411611951</v>
       </c>
       <c r="J12">
-        <v>0.1202714494055535</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7519431023970853</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1382682645048519</v>
+        <v>0.2356508677001727</v>
       </c>
       <c r="M12">
-        <v>0.5016586086588148</v>
+        <v>0.5401232918387393</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.8672361655572587</v>
       </c>
       <c r="O12">
-        <v>2.885607595420097</v>
+        <v>0.9947345648379837</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.16055910397057</v>
+        <v>2.990693159271359</v>
       </c>
       <c r="C13">
-        <v>0.4369428252091438</v>
+        <v>0.4374644215523915</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.0292543790071077</v>
+        <v>0.04130980122867722</v>
       </c>
       <c r="F13">
-        <v>3.536577061545927</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.0008022554203091183</v>
+        <v>0.285508409312115</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2077649383757034</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1626728164840081</v>
       </c>
       <c r="J13">
-        <v>0.1203263811523563</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7475374137286863</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1376810122497147</v>
+        <v>0.2345749330743701</v>
       </c>
       <c r="M13">
-        <v>0.4989166103281946</v>
+        <v>0.5372453429861039</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.8666857570019033</v>
       </c>
       <c r="O13">
-        <v>2.874178666472503</v>
+        <v>0.9917804888114006</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.101868196369253</v>
+        <v>2.938744021723721</v>
       </c>
       <c r="C14">
-        <v>0.4290156477938467</v>
+        <v>0.4325846419763195</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.02916284892293985</v>
+        <v>0.04153933259259635</v>
       </c>
       <c r="F14">
-        <v>3.491901639863499</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0008038388667281267</v>
+        <v>0.2818015496273176</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2069838974856424</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1630845668206149</v>
       </c>
       <c r="J14">
-        <v>0.1205085464292814</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7332095467627227</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1357708341531705</v>
+        <v>0.2310727839803945</v>
       </c>
       <c r="M14">
-        <v>0.4899990237974592</v>
+        <v>0.5278641694031734</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.8649187489794343</v>
       </c>
       <c r="O14">
-        <v>2.837083405234679</v>
+        <v>0.9822291676008774</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.066044364181266</v>
+        <v>2.906932023149068</v>
       </c>
       <c r="C15">
-        <v>0.4241763538530279</v>
+        <v>0.4295957633433716</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.02910749739281049</v>
+        <v>0.04168170130533166</v>
       </c>
       <c r="F15">
-        <v>3.464686473168541</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.0008048100439512049</v>
+        <v>0.2795499234340468</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2065163774389731</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1633511405013337</v>
       </c>
       <c r="J15">
-        <v>0.1206224133265259</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7244634380587769</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1346045711897119</v>
+        <v>0.2289327123834539</v>
       </c>
       <c r="M15">
-        <v>0.4845553433661038</v>
+        <v>0.5221212728100255</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.863857765213794</v>
       </c>
       <c r="O15">
-        <v>2.814495089864167</v>
+        <v>0.9764414938799462</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.86258243854644</v>
+        <v>2.724746245700317</v>
       </c>
       <c r="C16">
-        <v>0.3966779366863022</v>
+        <v>0.412468946127575</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0288006361363532</v>
+        <v>0.04252440673639324</v>
       </c>
       <c r="F16">
-        <v>3.310922144076926</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.0008103967333883914</v>
+        <v>0.2669282066325351</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2040002415662272</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1650939305576529</v>
       </c>
       <c r="J16">
-        <v>0.1213085391678668</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6747789682498535</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1279770725889975</v>
+        <v>0.2167445610285341</v>
       </c>
       <c r="M16">
-        <v>0.4536306805267003</v>
+        <v>0.4892594146033318</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.858098927647589</v>
       </c>
       <c r="O16">
-        <v>2.687003341162594</v>
+        <v>0.9442103516381906</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.739291883577152</v>
+        <v>2.613071884860688</v>
       </c>
       <c r="C17">
-        <v>0.3799996856518533</v>
+        <v>0.4019625566917</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.02862099760768877</v>
+        <v>0.04306496721756936</v>
       </c>
       <c r="F17">
-        <v>3.218445208977528</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0008138448311790933</v>
+        <v>0.2594270279339028</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2025980194623429</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1663497341908275</v>
       </c>
       <c r="J17">
-        <v>0.1217579601419345</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.644661333094021</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1239590927747543</v>
+        <v>0.2093325792176302</v>
       </c>
       <c r="M17">
-        <v>0.4348862975908148</v>
+        <v>0.4691398273590224</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.854846153075087</v>
       </c>
       <c r="O17">
-        <v>2.610434730976706</v>
+        <v>0.9252441320763722</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.668899212704446</v>
+        <v>2.548868176504186</v>
       </c>
       <c r="C18">
-        <v>0.3704704895577322</v>
+        <v>0.3959194065156169</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.02852061029148723</v>
+        <v>0.04338440790966658</v>
       </c>
       <c r="F18">
-        <v>3.165895437812026</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0008158364565864034</v>
+        <v>0.2551978154738208</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2018418406595472</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1671385632731592</v>
       </c>
       <c r="J18">
-        <v>0.1220263741353946</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6274613968238469</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1216648184041915</v>
+        <v>0.2050923315290447</v>
       </c>
       <c r="M18">
-        <v>0.4241827859238967</v>
+        <v>0.4575811289133327</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.8530756299131639</v>
       </c>
       <c r="O18">
-        <v>2.566960860242006</v>
+        <v>0.9146206612340393</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.645151250331082</v>
+        <v>2.52713433436594</v>
       </c>
       <c r="C19">
-        <v>0.3672544136141482</v>
+        <v>0.3938732474990161</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.02848710470007654</v>
+        <v>0.04349401570897538</v>
       </c>
       <c r="F19">
-        <v>3.148209330361055</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.0008165122891392596</v>
+        <v>0.253780186692893</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2015943091552614</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1674168801754803</v>
       </c>
       <c r="J19">
-        <v>0.1221189078533449</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6216579839636722</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1208908226502814</v>
+        <v>0.2036605035732322</v>
       </c>
       <c r="M19">
-        <v>0.4205716050272912</v>
+        <v>0.4536697713640194</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.8524931664248214</v>
       </c>
       <c r="O19">
-        <v>2.552335210058075</v>
+        <v>0.9110717321974136</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.752361593381011</v>
+        <v>2.624956760398504</v>
       </c>
       <c r="C20">
-        <v>0.3817683792806292</v>
+        <v>0.4030809893701246</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.02863981163749652</v>
+        <v>0.04300653816026934</v>
       </c>
       <c r="F20">
-        <v>3.228222364616784</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0008134769244526498</v>
+        <v>0.2602166363463496</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.2027420426205779</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.166209120729004</v>
       </c>
       <c r="J20">
-        <v>0.121709079843864</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6478544618793478</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.124385061404567</v>
+        <v>0.2101192026243979</v>
       </c>
       <c r="M20">
-        <v>0.436873498226575</v>
+        <v>0.4712801626604204</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.8551819703565968</v>
       </c>
       <c r="O20">
-        <v>2.618526151600875</v>
+        <v>0.9272333368073049</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.119080620824548</v>
+        <v>2.954000973660527</v>
       </c>
       <c r="C21">
-        <v>0.4313406074643638</v>
+        <v>0.4340179232594323</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.02918958339829036</v>
+        <v>0.04147154310831613</v>
       </c>
       <c r="F21">
-        <v>3.504992422780987</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0008033735096923955</v>
+        <v>0.2828863774817307</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.2072110292350828</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.1629606200376443</v>
       </c>
       <c r="J21">
-        <v>0.1204545602703497</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7374116475407462</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.136331107897206</v>
+        <v>0.2321003823413577</v>
       </c>
       <c r="M21">
-        <v>0.4926144242779102</v>
+        <v>0.5306189437877151</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.8654332958171409</v>
       </c>
       <c r="O21">
-        <v>2.847951106446729</v>
+        <v>0.9850214728807885</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.364283263817299</v>
+        <v>3.16941062153569</v>
       </c>
       <c r="C22">
-        <v>0.4644518147789825</v>
+        <v>0.4542419113473386</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.02958018291447084</v>
+        <v>0.0405473500185316</v>
       </c>
       <c r="F22">
-        <v>3.692472484329016</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007968291644742126</v>
+        <v>0.2985399097075856</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.210614820017426</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1614748274257813</v>
       </c>
       <c r="J22">
-        <v>0.1197354123950198</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7972627120340121</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1443053696630656</v>
+        <v>0.2466917653721339</v>
       </c>
       <c r="M22">
-        <v>0.5298613151546476</v>
+        <v>0.5695466756085565</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.8730822098759887</v>
       </c>
       <c r="O22">
-        <v>3.003769930439091</v>
+        <v>1.025569553689024</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.232861529580987</v>
+        <v>3.054404056297415</v>
       </c>
       <c r="C23">
-        <v>0.4467068912410355</v>
+        <v>0.4434472155550111</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.02936857483819455</v>
+        <v>0.0410332251643668</v>
       </c>
       <c r="F23">
-        <v>3.591761230813091</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.0008003174375614955</v>
+        <v>0.290104764040322</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.2087522098411512</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.162207263308062</v>
       </c>
       <c r="J23">
-        <v>0.1201093626709486</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7651865266018945</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1400331843506066</v>
+        <v>0.238882379386709</v>
       </c>
       <c r="M23">
-        <v>0.5099007320531825</v>
+        <v>0.5487555198884522</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.8689102373180617</v>
       </c>
       <c r="O23">
-        <v>2.920025541608211</v>
+        <v>1.003661913950538</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.746451264834548</v>
+        <v>2.61958361128768</v>
       </c>
       <c r="C24">
-        <v>0.3809685695623557</v>
+        <v>0.4025753550155287</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.02863129686888899</v>
+        <v>0.04303292698059735</v>
       </c>
       <c r="F24">
-        <v>3.223800201930317</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0008136432260436498</v>
+        <v>0.2598593957250586</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.2026767744598885</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.166272484338041</v>
       </c>
       <c r="J24">
-        <v>0.1217311474983731</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6464104922591432</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.124192432223424</v>
+        <v>0.2097635050044886</v>
       </c>
       <c r="M24">
-        <v>0.4359748591261123</v>
+        <v>0.4703124914327788</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.8550298379174279</v>
       </c>
       <c r="O24">
-        <v>2.614866327141286</v>
+        <v>0.9263331463670141</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.241291664362564</v>
+        <v>2.151591758690188</v>
       </c>
       <c r="C25">
-        <v>0.3124309335595115</v>
+        <v>0.358479576319354</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.02794624611455632</v>
+        <v>0.04551417931783686</v>
       </c>
       <c r="F25">
-        <v>2.850979925318825</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.0008283444142158276</v>
+        <v>0.2304543009740954</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.1980301642993965</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1731774486326714</v>
       </c>
       <c r="J25">
-        <v>0.1238544847393079</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5228910811493037</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1077383366662445</v>
+        <v>0.1792195985139955</v>
       </c>
       <c r="M25">
-        <v>0.3591508735862305</v>
+        <v>0.3862040505721112</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.8438669293689287</v>
       </c>
       <c r="O25">
-        <v>2.306983064513489</v>
+        <v>0.853709340224583</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.807300763044708</v>
+        <v>0.6742382825662219</v>
       </c>
       <c r="C2">
-        <v>0.3259678316853893</v>
+        <v>0.281511994406145</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04760452448633234</v>
+        <v>0.134278848984164</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.2111788717475562</v>
+        <v>0.3257080813141897</v>
       </c>
       <c r="H2">
-        <v>0.1960752922503985</v>
+        <v>0.4987926123142614</v>
       </c>
       <c r="I2">
-        <v>0.1802056377979078</v>
+        <v>0.4851656965642519</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1573638205361334</v>
+        <v>0.1987929869517586</v>
       </c>
       <c r="M2">
-        <v>0.3245697152116307</v>
+        <v>0.1659874430461628</v>
       </c>
       <c r="N2">
-        <v>0.8386470593342423</v>
+        <v>1.167285015218582</v>
       </c>
       <c r="O2">
-        <v>0.8083168624362571</v>
+        <v>1.581121824911321</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.573883664046036</v>
+        <v>0.6017064188764891</v>
       </c>
       <c r="C3">
-        <v>0.3038910734137374</v>
+        <v>0.2741861385872397</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04917812628717755</v>
+        <v>0.1355714005859827</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.1994148072761917</v>
+        <v>0.3263827970977715</v>
       </c>
       <c r="H3">
-        <v>0.1955846813902156</v>
+        <v>0.5024417969223833</v>
       </c>
       <c r="I3">
-        <v>0.1860771228267009</v>
+        <v>0.4912712563549189</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1428958878441904</v>
+        <v>0.1960395792534655</v>
       </c>
       <c r="M3">
-        <v>0.2829196327573626</v>
+        <v>0.1537947441846441</v>
       </c>
       <c r="N3">
-        <v>0.8368522516518269</v>
+        <v>1.169665638044904</v>
       </c>
       <c r="O3">
-        <v>0.7820381255479276</v>
+        <v>1.589961888529501</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.430442553794904</v>
+        <v>0.5571227097429698</v>
       </c>
       <c r="C4">
-        <v>0.2903102166496154</v>
+        <v>0.2696687952539492</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05021939916945506</v>
+        <v>0.1364172345828063</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.1927756438825128</v>
+        <v>0.3270662036578855</v>
       </c>
       <c r="H4">
-        <v>0.1956699072064083</v>
+        <v>0.504920064490058</v>
       </c>
       <c r="I4">
-        <v>0.1901963060668095</v>
+        <v>0.4953065582682274</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1341663951652095</v>
+        <v>0.1944455823451676</v>
       </c>
       <c r="M4">
-        <v>0.2573865741818011</v>
+        <v>0.1463380904184781</v>
       </c>
       <c r="N4">
-        <v>0.8365702562366479</v>
+        <v>1.171540430084612</v>
       </c>
       <c r="O4">
-        <v>0.7679419173363726</v>
+        <v>1.596449701326023</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.371948536419438</v>
+        <v>0.5389436534278786</v>
       </c>
       <c r="C5">
-        <v>0.2847689818760131</v>
+        <v>0.267823271135029</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05066226347651703</v>
+        <v>0.1367750596031918</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.1902089737331565</v>
+        <v>0.3274122923205098</v>
       </c>
       <c r="H5">
-        <v>0.1957982734917039</v>
+        <v>0.5059897726737788</v>
       </c>
       <c r="I5">
-        <v>0.1919995002838064</v>
+        <v>0.4970229793268199</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1306455798239838</v>
+        <v>0.193820389404479</v>
       </c>
       <c r="M5">
-        <v>0.2469892967665466</v>
+        <v>0.1433071606388907</v>
       </c>
       <c r="N5">
-        <v>0.8366559895298522</v>
+        <v>1.172408570218188</v>
       </c>
       <c r="O5">
-        <v>0.7626859127716017</v>
+        <v>1.599359975097713</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.362232920224102</v>
+        <v>0.5359244234243477</v>
       </c>
       <c r="C6">
-        <v>0.2838484328174644</v>
+        <v>0.2675165461388502</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05073691056676566</v>
+        <v>0.1368352702631022</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.189790937719664</v>
+        <v>0.3274738403063395</v>
       </c>
       <c r="H6">
-        <v>0.1958251431527955</v>
+        <v>0.5061710093196652</v>
       </c>
       <c r="I6">
-        <v>0.1923063111365639</v>
+        <v>0.4973123376200235</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1300630954041466</v>
+        <v>0.1937180510951464</v>
       </c>
       <c r="M6">
-        <v>0.2452632292804218</v>
+        <v>0.142804350387248</v>
       </c>
       <c r="N6">
-        <v>0.8366821868084031</v>
+        <v>1.172559022601824</v>
       </c>
       <c r="O6">
-        <v>0.7618419550438489</v>
+        <v>1.599859312981863</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.4296538600384</v>
+        <v>0.5568775825702232</v>
       </c>
       <c r="C7">
-        <v>0.2902355142551727</v>
+        <v>0.2696439245556377</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0502252971793089</v>
+        <v>0.1364220071104905</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.1927404770555654</v>
+        <v>0.3270705975470136</v>
       </c>
       <c r="H7">
-        <v>0.1956712638456324</v>
+        <v>0.5049342487995574</v>
       </c>
       <c r="I7">
-        <v>0.190220126145741</v>
+        <v>0.495329415027042</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1341187671345736</v>
+        <v>0.1944370519780918</v>
       </c>
       <c r="M7">
-        <v>0.2572463250511561</v>
+        <v>0.1462971826672437</v>
       </c>
       <c r="N7">
-        <v>0.8365706071899126</v>
+        <v>1.17155171607083</v>
       </c>
       <c r="O7">
-        <v>0.7678690873978411</v>
+        <v>1.596487871637635</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.726837652638608</v>
+        <v>0.6492402830622837</v>
       </c>
       <c r="C8">
-        <v>0.3183607758337672</v>
+        <v>0.2789901304630007</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04813131252847036</v>
+        <v>0.1347136948324898</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.206996481395592</v>
+        <v>0.3258848170991655</v>
       </c>
       <c r="H8">
-        <v>0.1958237408497894</v>
+        <v>0.5000015465141558</v>
       </c>
       <c r="I8">
-        <v>0.1821205651797495</v>
+        <v>0.4872114200023443</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1523420013064296</v>
+        <v>0.1978236087177834</v>
       </c>
       <c r="M8">
-        <v>0.3101988675699658</v>
+        <v>0.1617773770629398</v>
       </c>
       <c r="N8">
-        <v>0.83785458773513</v>
+        <v>1.168020281436497</v>
       </c>
       <c r="O8">
-        <v>0.7988177359747937</v>
+        <v>1.583949816566061</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.309152807786802</v>
+        <v>0.8299204910541107</v>
       </c>
       <c r="C9">
-        <v>0.373337920004758</v>
+        <v>0.2971588410880202</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04463643954952268</v>
+        <v>0.1317772417785079</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.2399651326994032</v>
+        <v>0.3256989697415378</v>
       </c>
       <c r="H9">
-        <v>0.1993564257844582</v>
+        <v>0.4922128275124749</v>
       </c>
       <c r="I9">
-        <v>0.1705350889696113</v>
+        <v>0.4735663138110411</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1894028273990287</v>
+        <v>0.2052281445628452</v>
       </c>
       <c r="M9">
-        <v>0.4144814913637731</v>
+        <v>0.1923604831164951</v>
       </c>
       <c r="N9">
-        <v>0.8471434427120244</v>
+        <v>1.164361513130288</v>
       </c>
       <c r="O9">
-        <v>0.8768405183016483</v>
+        <v>1.567779131830434</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.737493270857271</v>
+        <v>0.9623348603564637</v>
       </c>
       <c r="C10">
-        <v>0.4136677978165153</v>
+        <v>0.3104028226835283</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.04246389048803767</v>
+        <v>0.1298709984861528</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.2677959560964354</v>
+        <v>0.3268729759421305</v>
       </c>
       <c r="H10">
-        <v>0.2041671813413899</v>
+        <v>0.4876374993081143</v>
       </c>
       <c r="I10">
-        <v>0.164959797637767</v>
+        <v>0.4649293672356265</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2175934968289823</v>
+        <v>0.2111304593802714</v>
       </c>
       <c r="M10">
-        <v>0.4915571209227139</v>
+        <v>0.2149577669725886</v>
       </c>
       <c r="N10">
-        <v>0.858483877176397</v>
+        <v>1.163650791764681</v>
       </c>
       <c r="O10">
-        <v>0.9464139911268035</v>
+        <v>1.561039539141149</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.932660108846278</v>
+        <v>1.022489363041188</v>
       </c>
       <c r="C11">
-        <v>0.4320130699518927</v>
+        <v>0.3164036256189604</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04156645290653938</v>
+        <v>0.1290581376239919</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.2813698541656464</v>
+        <v>0.3276930106115685</v>
       </c>
       <c r="H11">
-        <v>0.2068938506719604</v>
+        <v>0.4858047970777619</v>
       </c>
       <c r="I11">
-        <v>0.1631346960437412</v>
+        <v>0.461301967304717</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2306632365237533</v>
+        <v>0.2139152952961467</v>
       </c>
       <c r="M11">
-        <v>0.5267657559236696</v>
+        <v>0.2252635946075685</v>
       </c>
       <c r="N11">
-        <v>0.8647145946489445</v>
+        <v>1.163754032107931</v>
       </c>
       <c r="O11">
-        <v>0.9811186855291112</v>
+        <v>1.559092131026773</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.006625979171304</v>
+        <v>1.045255278938782</v>
       </c>
       <c r="C12">
-        <v>0.4389607855696909</v>
+        <v>0.3186723746819666</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04124013044349972</v>
+        <v>0.1287581220293621</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.2866526991246872</v>
+        <v>0.3280447554990786</v>
       </c>
       <c r="H12">
-        <v>0.2080088158026143</v>
+        <v>0.4851465260974521</v>
       </c>
       <c r="I12">
-        <v>0.1625523411611951</v>
+        <v>0.4599717694298882</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2356508677001727</v>
+        <v>0.2149841259661684</v>
       </c>
       <c r="M12">
-        <v>0.5401232918387393</v>
+        <v>0.2291696910547785</v>
       </c>
       <c r="N12">
-        <v>0.8672361655572587</v>
+        <v>1.16385422067799</v>
       </c>
       <c r="O12">
-        <v>0.9947345648379837</v>
+        <v>1.558515683628855</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.990693159271359</v>
+        <v>1.040352847691622</v>
       </c>
       <c r="C13">
-        <v>0.4374644215523915</v>
+        <v>0.3181839230617811</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04130980122867722</v>
+        <v>0.1288223891481408</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.285508409312115</v>
+        <v>0.3279671664062107</v>
       </c>
       <c r="H13">
-        <v>0.2077649383757034</v>
+        <v>0.4852867075932465</v>
       </c>
       <c r="I13">
-        <v>0.1626728164840081</v>
+        <v>0.4602563194230029</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2345749330743701</v>
+        <v>0.2147533006625935</v>
       </c>
       <c r="M13">
-        <v>0.5372453429861039</v>
+        <v>0.2283282917205511</v>
       </c>
       <c r="N13">
-        <v>0.8666857570019033</v>
+        <v>1.163829929962631</v>
       </c>
       <c r="O13">
-        <v>0.9917804888114006</v>
+        <v>1.558632669139371</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.938744021723721</v>
+        <v>1.02436260398423</v>
       </c>
       <c r="C14">
-        <v>0.4325846419763195</v>
+        <v>0.316590350647374</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04153933259259635</v>
+        <v>0.1290332989559975</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.2818015496273176</v>
+        <v>0.327721122326551</v>
       </c>
       <c r="H14">
-        <v>0.2069838974856424</v>
+        <v>0.4857499246893582</v>
       </c>
       <c r="I14">
-        <v>0.1630845668206149</v>
+        <v>0.4611916606353184</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2310727839803945</v>
+        <v>0.2140029430510708</v>
       </c>
       <c r="M14">
-        <v>0.5278641694031734</v>
+        <v>0.2255848828257783</v>
       </c>
       <c r="N14">
-        <v>0.8649187489794343</v>
+        <v>1.16376105165719</v>
       </c>
       <c r="O14">
-        <v>0.9822291676008774</v>
+        <v>1.559041478893448</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.906932023149068</v>
+        <v>1.014566340707688</v>
       </c>
       <c r="C15">
-        <v>0.4295957633433716</v>
+        <v>0.3156137641239241</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.04168170130533166</v>
+        <v>0.1291635024015436</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.2795499234340468</v>
+        <v>0.3275757834399258</v>
       </c>
       <c r="H15">
-        <v>0.2065163774389731</v>
+        <v>0.4860383115024831</v>
       </c>
       <c r="I15">
-        <v>0.1633511405013337</v>
+        <v>0.4617702401883186</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2289327123834539</v>
+        <v>0.2135451837256852</v>
       </c>
       <c r="M15">
-        <v>0.5221212728100255</v>
+        <v>0.223904913996968</v>
       </c>
       <c r="N15">
-        <v>0.863857765213794</v>
+        <v>1.163726810733749</v>
       </c>
       <c r="O15">
-        <v>0.9764414938799462</v>
+        <v>1.559312857501624</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.724746245700317</v>
+        <v>0.9584018482861438</v>
       </c>
       <c r="C16">
-        <v>0.412468946127575</v>
+        <v>0.3100101586907442</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04252440673639324</v>
+        <v>0.1299252125508072</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.2669282066325351</v>
+        <v>0.3268251472388144</v>
       </c>
       <c r="H16">
-        <v>0.2040002415662272</v>
+        <v>0.4877622722076396</v>
       </c>
       <c r="I16">
-        <v>0.1650939305576529</v>
+        <v>0.4651724995266164</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2167445610285341</v>
+        <v>0.2109504657655492</v>
       </c>
       <c r="M16">
-        <v>0.4892594146033318</v>
+        <v>0.2142847615875922</v>
       </c>
       <c r="N16">
-        <v>0.858098927647589</v>
+        <v>1.163652607136711</v>
       </c>
       <c r="O16">
-        <v>0.9442103516381906</v>
+        <v>1.561189326966741</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.613071884860688</v>
+        <v>0.9239247664736467</v>
       </c>
       <c r="C17">
-        <v>0.4019625566917</v>
+        <v>0.3065662651808623</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.04306496721756936</v>
+        <v>0.1304063964921331</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.2594270279339028</v>
+        <v>0.3264379674397588</v>
       </c>
       <c r="H17">
-        <v>0.2025980194623429</v>
+        <v>0.4888835339522117</v>
       </c>
       <c r="I17">
-        <v>0.1663497341908275</v>
+        <v>0.4673369566792047</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2093325792176302</v>
+        <v>0.2093842032004147</v>
       </c>
       <c r="M17">
-        <v>0.4691398273590224</v>
+        <v>0.2083896335142867</v>
       </c>
       <c r="N17">
-        <v>0.854846153075087</v>
+        <v>1.163716160943267</v>
       </c>
       <c r="O17">
-        <v>0.9252441320763722</v>
+        <v>1.562627060889113</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.548868176504186</v>
+        <v>0.9040868876838317</v>
       </c>
       <c r="C18">
-        <v>0.3959194065156169</v>
+        <v>0.3045831851354706</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04338440790966658</v>
+        <v>0.1306882722781042</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.2551978154738208</v>
+        <v>0.326242183556829</v>
       </c>
       <c r="H18">
-        <v>0.2018418406595472</v>
+        <v>0.4895518582035692</v>
       </c>
       <c r="I18">
-        <v>0.1671385632731592</v>
+        <v>0.4686102792513225</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2050923315290447</v>
+        <v>0.2084927331367794</v>
       </c>
       <c r="M18">
-        <v>0.4575811289133327</v>
+        <v>0.2050013946394031</v>
       </c>
       <c r="N18">
-        <v>0.8530756299131639</v>
+        <v>1.163792878758727</v>
       </c>
       <c r="O18">
-        <v>0.9146206612340393</v>
+        <v>1.563559273416189</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.52713433436594</v>
+        <v>0.8973688701170772</v>
       </c>
       <c r="C19">
-        <v>0.3938732474990161</v>
+        <v>0.3039113684804136</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04349401570897538</v>
+        <v>0.1307845888158621</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.253780186692893</v>
+        <v>0.3261805137544016</v>
       </c>
       <c r="H19">
-        <v>0.2015943091552614</v>
+        <v>0.4897821616114655</v>
       </c>
       <c r="I19">
-        <v>0.1674168801754803</v>
+        <v>0.4690462778130495</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2036605035732322</v>
+        <v>0.2081925141630165</v>
       </c>
       <c r="M19">
-        <v>0.4536697713640194</v>
+        <v>0.2038546297106905</v>
       </c>
       <c r="N19">
-        <v>0.8524931664248214</v>
+        <v>1.163825759676158</v>
       </c>
       <c r="O19">
-        <v>0.9110717321974136</v>
+        <v>1.563892979182114</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.624956760398504</v>
+        <v>0.9275957059049347</v>
       </c>
       <c r="C20">
-        <v>0.4030809893701246</v>
+        <v>0.306933107038418</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.04300653816026934</v>
+        <v>0.130354644697519</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.2602166363463496</v>
+        <v>0.3264763974532414</v>
       </c>
       <c r="H20">
-        <v>0.2027420426205779</v>
+        <v>0.4887617516292408</v>
       </c>
       <c r="I20">
-        <v>0.166209120729004</v>
+        <v>0.4671036085023452</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2101192026243979</v>
+        <v>0.2095499619815087</v>
       </c>
       <c r="M20">
-        <v>0.4712801626604204</v>
+        <v>0.2090169249190765</v>
       </c>
       <c r="N20">
-        <v>0.8551819703565968</v>
+        <v>1.163705240554279</v>
       </c>
       <c r="O20">
-        <v>0.9272333368073049</v>
+        <v>1.562463115856218</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.954000973660527</v>
+        <v>1.029059699364609</v>
       </c>
       <c r="C21">
-        <v>0.4340179232594323</v>
+        <v>0.3170585213073025</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04147154310831613</v>
+        <v>0.1289711381068201</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.2828863774817307</v>
+        <v>0.327792272124924</v>
       </c>
       <c r="H21">
-        <v>0.2072110292350828</v>
+        <v>0.4856128969622659</v>
       </c>
       <c r="I21">
-        <v>0.1629606200376443</v>
+        <v>0.4609157494408329</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2321003823413577</v>
+        <v>0.2142229545524543</v>
       </c>
       <c r="M21">
-        <v>0.5306189437877151</v>
+        <v>0.2263905955611349</v>
       </c>
       <c r="N21">
-        <v>0.8654332958171409</v>
+        <v>1.163779626745239</v>
       </c>
       <c r="O21">
-        <v>0.9850214728807885</v>
+        <v>1.558917030976858</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.16941062153569</v>
+        <v>1.095294098208285</v>
       </c>
       <c r="C22">
-        <v>0.4542419113473386</v>
+        <v>0.3236548534239034</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0405473500185316</v>
+        <v>0.1281123794076171</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.2985399097075856</v>
+        <v>0.3288925502356363</v>
       </c>
       <c r="H22">
-        <v>0.210614820017426</v>
+        <v>0.4837632116275898</v>
       </c>
       <c r="I22">
-        <v>0.1614748274257813</v>
+        <v>0.4571247329673298</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2466917653721339</v>
+        <v>0.217360184687422</v>
       </c>
       <c r="M22">
-        <v>0.5695466756085565</v>
+        <v>0.2377655896976734</v>
       </c>
       <c r="N22">
-        <v>0.8730822098759887</v>
+        <v>1.164184232611277</v>
       </c>
       <c r="O22">
-        <v>1.025569553689024</v>
+        <v>1.557537926399192</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.054404056297415</v>
+        <v>1.059951226920305</v>
       </c>
       <c r="C23">
-        <v>0.4434472155550111</v>
+        <v>0.3201362672477899</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0410332251643668</v>
+        <v>0.1285665606677231</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.290104764040322</v>
+        <v>0.3282832953041463</v>
       </c>
       <c r="H23">
-        <v>0.2087522098411512</v>
+        <v>0.4847313731822283</v>
       </c>
       <c r="I23">
-        <v>0.162207263308062</v>
+        <v>0.4591248936005314</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.238882379386709</v>
+        <v>0.2156782045205148</v>
       </c>
       <c r="M23">
-        <v>0.5487555198884522</v>
+        <v>0.231692771931904</v>
       </c>
       <c r="N23">
-        <v>0.8689102373180617</v>
+        <v>1.163935793348045</v>
       </c>
       <c r="O23">
-        <v>1.003661913950538</v>
+        <v>1.558188058739717</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.61958361128768</v>
+        <v>0.9259361256035277</v>
       </c>
       <c r="C24">
-        <v>0.4025753550155287</v>
+        <v>0.3067672676015718</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.04303292698059735</v>
+        <v>0.1303780253714919</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.2598593957250586</v>
+        <v>0.3264589397378685</v>
       </c>
       <c r="H24">
-        <v>0.2026767744598885</v>
+        <v>0.4888167356050133</v>
       </c>
       <c r="I24">
-        <v>0.166272484338041</v>
+        <v>0.4672090150487698</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2097635050044886</v>
+        <v>0.2094749944119343</v>
       </c>
       <c r="M24">
-        <v>0.4703124914327788</v>
+        <v>0.2087333234994304</v>
       </c>
       <c r="N24">
-        <v>0.8550298379174279</v>
+        <v>1.163710052486664</v>
       </c>
       <c r="O24">
-        <v>0.9263331463670141</v>
+        <v>1.562536906358417</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.151591758690188</v>
+        <v>0.7810954713378351</v>
       </c>
       <c r="C25">
-        <v>0.358479576319354</v>
+        <v>0.2922615446413062</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.04551417931783686</v>
+        <v>0.1325274546587494</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.2304543009740954</v>
+        <v>0.3255195491309522</v>
       </c>
       <c r="H25">
-        <v>0.1980301642993965</v>
+        <v>0.4941183286039958</v>
       </c>
       <c r="I25">
-        <v>0.1731774486326714</v>
+        <v>0.4770140286164022</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1792195985139955</v>
+        <v>0.2031436181353996</v>
       </c>
       <c r="M25">
-        <v>0.3862040505721112</v>
+        <v>0.184063750239801</v>
       </c>
       <c r="N25">
-        <v>0.8438669293689287</v>
+        <v>1.165003070533714</v>
       </c>
       <c r="O25">
-        <v>0.853709340224583</v>
+        <v>1.571251638662744</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6742382825662219</v>
+        <v>3.644851144530037</v>
       </c>
       <c r="C2">
-        <v>0.281511994406145</v>
+        <v>0.9980738741323307</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.134278848984164</v>
+        <v>1.443476336218438</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.3257080813141897</v>
+        <v>0.0007679706227311725</v>
       </c>
       <c r="H2">
-        <v>0.4987926123142614</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4851656965642519</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1987929869517586</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1659874430461628</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.167285015218582</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.581121824911321</v>
+        <v>0.6607844374109533</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6017064188764891</v>
+        <v>3.168698286383972</v>
       </c>
       <c r="C3">
-        <v>0.2741861385872397</v>
+        <v>0.876245706823255</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1355714005859827</v>
+        <v>1.23709594750099</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.3263827970977715</v>
+        <v>0.0007733813705980512</v>
       </c>
       <c r="H3">
-        <v>0.5024417969223833</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4912712563549189</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1960395792534655</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1537947441846441</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.169665638044904</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.589961888529501</v>
+        <v>0.6185569960940853</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5571227097429698</v>
+        <v>2.8773771594511</v>
       </c>
       <c r="C4">
-        <v>0.2696687952539492</v>
+        <v>0.8016352583594823</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1364172345828063</v>
+        <v>1.113097919745513</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.3270662036578855</v>
+        <v>0.0007767827921647141</v>
       </c>
       <c r="H4">
-        <v>0.504920064490058</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4953065582682274</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1944455823451676</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1463380904184781</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.171540430084612</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.596449701326023</v>
+        <v>0.5991301586549866</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5389436534278786</v>
+        <v>2.758850703218059</v>
       </c>
       <c r="C5">
-        <v>0.267823271135029</v>
+        <v>0.771262640026066</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1367750596031918</v>
+        <v>1.063144823527409</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.3274122923205098</v>
+        <v>0.0007781898236817817</v>
       </c>
       <c r="H5">
-        <v>0.5059897726737788</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4970229793268199</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.193820389404479</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1433071606388907</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.172408570218188</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.599359975097713</v>
+        <v>0.5927084596096392</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5359244234243477</v>
+        <v>2.739178921540599</v>
       </c>
       <c r="C6">
-        <v>0.2675165461388502</v>
+        <v>0.766220748904118</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1368352702631022</v>
+        <v>1.054882070978721</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.3274738403063395</v>
+        <v>0.000778424752068892</v>
       </c>
       <c r="H6">
-        <v>0.5061710093196652</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4973123376200235</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1937180510951464</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.142804350387248</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.172559022601824</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.599859312981863</v>
+        <v>0.5917285427265142</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5568775825702232</v>
+        <v>2.875777994454495</v>
       </c>
       <c r="C7">
-        <v>0.2696439245556377</v>
+        <v>0.8012255349991904</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1364220071104905</v>
+        <v>1.112422032109919</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.3270705975470136</v>
+        <v>0.0007768016819470804</v>
       </c>
       <c r="H7">
-        <v>0.5049342487995574</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.495329415027042</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1944370519780918</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1462971826672437</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.17155171607083</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.596487871637635</v>
+        <v>0.5990376776378241</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6492402830622837</v>
+        <v>3.480412681324708</v>
       </c>
       <c r="C8">
-        <v>0.2789901304630007</v>
+        <v>0.9560170033789461</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1347136948324898</v>
+        <v>1.371684029990789</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.3258848170991655</v>
+        <v>0.0007698204439940126</v>
       </c>
       <c r="H8">
-        <v>0.5000015465141558</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4872114200023443</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1978236087177834</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1617773770629398</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.168020281436497</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.583949816566061</v>
+        <v>0.6447875194189265</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8299204910541107</v>
+        <v>4.677983924143859</v>
       </c>
       <c r="C9">
-        <v>0.2971588410880202</v>
+        <v>1.261942435224626</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1317772417785079</v>
+        <v>1.90712846594856</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171845327</v>
       </c>
       <c r="G9">
-        <v>0.3256989697415378</v>
+        <v>0.0007567083621241396</v>
       </c>
       <c r="H9">
-        <v>0.4922128275124749</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4735663138110411</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2052281445628452</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.1923604831164951</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.164361513130288</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.567779131830434</v>
+        <v>0.793006192767109</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9623348603564637</v>
+        <v>5.570824096785941</v>
       </c>
       <c r="C10">
-        <v>0.3104028226835283</v>
+        <v>1.489510809375702</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1298709984861528</v>
+        <v>2.325716338923527</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.3268729759421305</v>
+        <v>0.000747348924810127</v>
       </c>
       <c r="H10">
-        <v>0.4876374993081143</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4649293672356265</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2111304593802714</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.2149577669725886</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.163650791764681</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.561039539141149</v>
+        <v>0.9482865039502428</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.022489363041188</v>
+        <v>5.981291882641585</v>
       </c>
       <c r="C11">
-        <v>0.3164036256189604</v>
+        <v>1.593997163247536</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1290581376239919</v>
+        <v>2.523939415648655</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639217</v>
       </c>
       <c r="G11">
-        <v>0.3276930106115685</v>
+        <v>0.000743130465490691</v>
       </c>
       <c r="H11">
-        <v>0.4858047970777619</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.461301967304717</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2139152952961467</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.2252635946075685</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.163754032107931</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.559092131026773</v>
+        <v>1.031745493758251</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.045255278938782</v>
+        <v>6.137484399211303</v>
       </c>
       <c r="C12">
-        <v>0.3186723746819666</v>
+        <v>1.633735453051372</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1287581220293621</v>
+        <v>2.600354888729569</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.3280447554990786</v>
+        <v>0.0007415367570099418</v>
       </c>
       <c r="H12">
-        <v>0.4851465260974521</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4599717694298882</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2149841259661684</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.2291696910547785</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.16385422067799</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.558515683628855</v>
+        <v>1.065457433361928</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.040352847691622</v>
+        <v>6.103809488468471</v>
       </c>
       <c r="C13">
-        <v>0.3181839230617811</v>
+        <v>1.625168899197206</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1288223891481408</v>
+        <v>2.583833220026634</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.3279671664062107</v>
+        <v>0.0007418798577790307</v>
       </c>
       <c r="H13">
-        <v>0.4852867075932465</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4602563194230029</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2147533006625935</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.2283282917205511</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.163829929962631</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.558632669139371</v>
+        <v>1.058098637897416</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02436260398423</v>
+        <v>5.994125908137164</v>
       </c>
       <c r="C14">
-        <v>0.316590350647374</v>
+        <v>1.597262813488271</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1290332989559975</v>
+        <v>2.530197600896116</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.327721122326551</v>
+        <v>0.0007429992871676727</v>
       </c>
       <c r="H14">
-        <v>0.4857499246893582</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4611916606353184</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2140029430510708</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.2255848828257783</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.16376105165719</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.559041478893448</v>
+        <v>1.034475114480045</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.014566340707688</v>
+        <v>5.92704454522277</v>
       </c>
       <c r="C15">
-        <v>0.3156137641239241</v>
+        <v>1.580192925584242</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1291635024015436</v>
+        <v>2.497527861280375</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.3275757834399258</v>
+        <v>0.0007436853949022761</v>
       </c>
       <c r="H15">
-        <v>0.4860383115024831</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4617702401883186</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2135451837256852</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.223904913996968</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.163726810733749</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.559312857501624</v>
+        <v>1.020287954503743</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9584018482861438</v>
+        <v>5.544097157455781</v>
       </c>
       <c r="C16">
-        <v>0.3100101586907442</v>
+        <v>1.482704500867385</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1299252125508072</v>
+        <v>2.312937927407944</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.3268251472388144</v>
+        <v>0.000747625242482212</v>
       </c>
       <c r="H16">
-        <v>0.4877622722076396</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4651724995266164</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2109504657655492</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.2142847615875922</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.163652607136711</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.561189326966741</v>
+        <v>0.9431120730236557</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9239247664736467</v>
+        <v>5.310367822159094</v>
       </c>
       <c r="C17">
-        <v>0.3065662651808623</v>
+        <v>1.423167589580089</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1304063964921331</v>
+        <v>2.201849907192795</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.3264379674397588</v>
+        <v>0.0007500509709051768</v>
       </c>
       <c r="H17">
-        <v>0.4888835339522117</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4673369566792047</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2093842032004147</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2083896335142867</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.163716160943267</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.562627060889113</v>
+        <v>0.8992285322446207</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9040868876838317</v>
+        <v>5.176329416294323</v>
       </c>
       <c r="C18">
-        <v>0.3045831851354706</v>
+        <v>1.389012095121871</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1306882722781042</v>
+        <v>2.138673955318552</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.326242183556829</v>
+        <v>0.0007514500027770987</v>
       </c>
       <c r="H18">
-        <v>0.4895518582035692</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4686102792513225</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2084927331367794</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2050013946394031</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.163792878758727</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.563559273416189</v>
+        <v>0.8751770032753541</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8973688701170772</v>
+        <v>5.131010505609765</v>
       </c>
       <c r="C19">
-        <v>0.3039113684804136</v>
+        <v>1.377461908595649</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1307845888158621</v>
+        <v>2.117400700892318</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.3261805137544016</v>
+        <v>0.0007519244004662441</v>
       </c>
       <c r="H19">
-        <v>0.4897821616114655</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4690462778130495</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2081925141630165</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2038546297106905</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.163825759676158</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.563892979182114</v>
+        <v>0.8672302939632743</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9275957059049347</v>
+        <v>5.335206728693777</v>
       </c>
       <c r="C20">
-        <v>0.306933107038418</v>
+        <v>1.429496004873329</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.130354644697519</v>
+        <v>2.213599455334645</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.3264763974532414</v>
+        <v>0.0007497923659111762</v>
       </c>
       <c r="H20">
-        <v>0.4887617516292408</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4671036085023452</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2095499619815087</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2090169249190765</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.163705240554279</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.562463115856218</v>
+        <v>0.9037751340910631</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.029059699364609</v>
+        <v>6.026320899475138</v>
       </c>
       <c r="C21">
-        <v>0.3170585213073025</v>
+        <v>1.605454566711671</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1289711381068201</v>
+        <v>2.545912950399099</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.327792272124924</v>
+        <v>0.0007426703988065672</v>
       </c>
       <c r="H21">
-        <v>0.4856128969622659</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4609157494408329</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2142229545524543</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.2263905955611349</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.163779626745239</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.558917030976858</v>
+        <v>1.041354432315643</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.095294098208285</v>
+        <v>6.482494905412352</v>
       </c>
       <c r="C22">
-        <v>0.3236548534239034</v>
+        <v>1.721472308090313</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1281123794076171</v>
+        <v>2.77111873249703</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031955</v>
       </c>
       <c r="G22">
-        <v>0.3288925502356363</v>
+        <v>0.0007380364484104749</v>
       </c>
       <c r="H22">
-        <v>0.4837632116275898</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4571247329673298</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.217360184687422</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.2377655896976734</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.164184232611277</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.557537926399192</v>
+        <v>1.143705272974302</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.059951226920305</v>
+        <v>6.238565193787906</v>
       </c>
       <c r="C23">
-        <v>0.3201362672477899</v>
+        <v>1.659446193825204</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1285665606677231</v>
+        <v>2.650102188894877</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.3282832953041463</v>
+        <v>0.000740508482675108</v>
       </c>
       <c r="H23">
-        <v>0.4847313731822283</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4591248936005314</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2156782045205148</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.231692771931904</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.163935793348045</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.558188058739717</v>
+        <v>1.087844277934266</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9259361256035277</v>
+        <v>5.323976023571618</v>
       </c>
       <c r="C24">
-        <v>0.3067672676015718</v>
+        <v>1.426634703154264</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1303780253714919</v>
+        <v>2.208285352221466</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.3264589397378685</v>
+        <v>0.000749909267208039</v>
       </c>
       <c r="H24">
-        <v>0.4888167356050133</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4672090150487698</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2094749944119343</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2087333234994304</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.163710052486664</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.562536906358417</v>
+        <v>0.9017159666335886</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7810954713378351</v>
+        <v>4.352182379978274</v>
       </c>
       <c r="C25">
-        <v>0.2922615446413062</v>
+        <v>1.178796381681138</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1325274546587494</v>
+        <v>1.758553363287561</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
-        <v>0.3255195491309522</v>
+        <v>0.0007602012176919824</v>
       </c>
       <c r="H25">
-        <v>0.4941183286039958</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4770140286164022</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2031436181353996</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.184063750239801</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.165003070533714</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.571251638662744</v>
+        <v>0.7456101252489447</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,40 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.644851144530037</v>
+        <v>3.45706446842388</v>
       </c>
       <c r="C2">
-        <v>0.9980738741323307</v>
+        <v>1.007463387640854</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.443476336218438</v>
+        <v>1.343001604769114</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007679706227311725</v>
+        <v>0.0007919315264227313</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.009976046992029766</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.002654056212566314</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,36 +466,42 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6607844374109533</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.9101585796577893</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.168698286383972</v>
+        <v>3.012171406964342</v>
       </c>
       <c r="C3">
-        <v>0.876245706823255</v>
+        <v>0.8887149943078327</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.23709594750099</v>
+        <v>1.169389773686817</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0007733813705980512</v>
+        <v>0.0007954614514921511</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.006951618590052611</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001410059181311318</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,36 +519,42 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6185569960940853</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.8891057585376387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.8773771594511</v>
+        <v>2.738754624972501</v>
       </c>
       <c r="C4">
-        <v>0.8016352583594823</v>
+        <v>0.8163771175811689</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.113097919745513</v>
+        <v>1.063116433664888</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0007767827921647141</v>
+        <v>0.0007976930960263985</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.005315784855754235</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0008979189225590822</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,36 +572,42 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5991301586549866</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.8782150267306292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.758850703218059</v>
+        <v>2.627221208681419</v>
       </c>
       <c r="C5">
-        <v>0.771262640026066</v>
+        <v>0.7886090506703738</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.063144823527409</v>
+        <v>1.019853648607011</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0007781898236817817</v>
+        <v>0.0007986238881468814</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.004698928024502003</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0008088876672678325</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,36 +625,42 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5927084596096392</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.8717184442198374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.739178921540599</v>
+        <v>2.608661551526438</v>
       </c>
       <c r="C6">
-        <v>0.766220748904118</v>
+        <v>0.7859419212789192</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.054882070978721</v>
+        <v>1.012653962182483</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.000778424752068892</v>
+        <v>0.0007987853965448778</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.004597866120651273</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0008797876039716712</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,36 +678,42 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.5917285427265142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.8675813516168773</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.875777994454495</v>
+        <v>2.737157128669196</v>
       </c>
       <c r="C7">
-        <v>0.8012255349991904</v>
+        <v>0.8213050690186208</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.112422032109919</v>
+        <v>1.062480831808543</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0007768016819470804</v>
+        <v>0.0007977214043917563</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.005302660952479443</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001105510563603751</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,36 +731,42 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5990376776378241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.8696960583638429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.480412681324708</v>
+        <v>3.303572487780059</v>
       </c>
       <c r="C8">
-        <v>0.9560170033789461</v>
+        <v>0.9734888820579783</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.371684029990789</v>
+        <v>1.28298990155524</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0007698204439940126</v>
+        <v>0.0007931546222333261</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.008877294755860243</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.002415490825453226</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,36 +784,42 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6447875194189265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.8913306168166599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.677983924143859</v>
+        <v>4.413697388953381</v>
       </c>
       <c r="C9">
-        <v>1.261942435224626</v>
+        <v>1.267469075783538</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.90712846594856</v>
+        <v>1.719131879611268</v>
       </c>
       <c r="F9">
-        <v>1.895061171845327</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0007567083621241396</v>
+        <v>0.0007846681333266091</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.01786782060856185</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.006909485273287608</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,36 +837,42 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.793006192767109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.9669023301322994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.570824096785941</v>
+        <v>5.229541537614182</v>
       </c>
       <c r="C10">
-        <v>1.489510809375702</v>
+        <v>1.489227463985628</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.325716338923527</v>
+        <v>1.941193055041964</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.000747348924810127</v>
+        <v>0.0007789065123076898</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.02527337859572842</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01186560577040563</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,36 +890,42 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9482865039502428</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.9923685502502906</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.981291882641585</v>
+        <v>5.592035089196713</v>
       </c>
       <c r="C11">
-        <v>1.593997163247536</v>
+        <v>1.59189657791859</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.523939415648655</v>
+        <v>1.254694484650472</v>
       </c>
       <c r="F11">
-        <v>2.451628164639217</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.000743130465490691</v>
+        <v>0.0007778393998584065</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04071378888487232</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01359257270796466</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,36 +943,42 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.031745493758251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.6840291361303485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.137484399211303</v>
+        <v>5.726383921551019</v>
       </c>
       <c r="C12">
-        <v>1.633735453051372</v>
+        <v>1.623456135342963</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.600354888729569</v>
+        <v>0.7606207801202487</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007415367570099418</v>
+        <v>0.0007779067756840159</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0766274760464043</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01369507220244959</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,36 +996,42 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.065457433361928</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.4736524581405348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.103809488468471</v>
+        <v>5.69149969114909</v>
       </c>
       <c r="C13">
-        <v>1.625168899197206</v>
+        <v>1.610267069501333</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.583833220026634</v>
+        <v>0.3862190595630395</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.0007418798577790307</v>
+        <v>0.0007788722137611204</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1296338476240209</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01282651398845491</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,36 +1049,42 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.058098637897416</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.3121078267026292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.994125908137164</v>
+        <v>5.590554727746905</v>
       </c>
       <c r="C14">
-        <v>1.597262813488271</v>
+        <v>1.582602072687394</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.530197600896116</v>
+        <v>0.1968044168632517</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007429992871676727</v>
+        <v>0.0007799330981433236</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1771830353365829</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01190201796664603</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,36 +1102,42 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.034475114480045</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.2259690028565231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.92704454522277</v>
+        <v>5.529752952375816</v>
       </c>
       <c r="C15">
-        <v>1.580192925584242</v>
+        <v>1.568534547397974</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.497527861280375</v>
+        <v>0.1596373502882997</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007436853949022761</v>
+        <v>0.0007804154799479467</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1890866575273265</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01156379217992409</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,36 +1155,42 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.020287954503743</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.208809031408407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.544097157455781</v>
+        <v>5.184712317784374</v>
       </c>
       <c r="C16">
-        <v>1.482704500867385</v>
+        <v>1.478695092013709</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.312937927407944</v>
+        <v>0.1555078664300424</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.000747625242482212</v>
+        <v>0.0007826700725010032</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1740758739912849</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.009660260516514363</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,36 +1208,42 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9431120730236557</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.2274106021470175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.310367822159094</v>
+        <v>4.974309208171974</v>
       </c>
       <c r="C17">
-        <v>1.423167589580089</v>
+        <v>1.424871884375534</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.201849907192795</v>
+        <v>0.2391311429574401</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007500509709051768</v>
+        <v>0.000783856930264254</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1354299262250294</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.0087354466932279</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,36 +1261,42 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.8992285322446207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.2835228288309182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.176329416294323</v>
+        <v>4.855468628462802</v>
       </c>
       <c r="C18">
-        <v>1.389012095121871</v>
+        <v>1.39117380567194</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.138673955318552</v>
+        <v>0.4709913206318603</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007514500027770987</v>
+        <v>0.0007841387904206719</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08325542121928464</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.008256881803588634</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,36 +1314,42 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8751770032753541</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.4019045300307198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.131010505609765</v>
+        <v>4.818908855008374</v>
       </c>
       <c r="C19">
-        <v>1.377461908595649</v>
+        <v>1.387277969842842</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.117400700892318</v>
+        <v>0.9032220602888259</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.0007519244004662441</v>
+        <v>0.0007835304193727203</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.0406011370972692</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.008711353139416289</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,36 +1367,42 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8672302939632743</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.5855600131483385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.335206728693777</v>
+        <v>5.014790210718388</v>
       </c>
       <c r="C20">
-        <v>1.429496004873329</v>
+        <v>1.447889257766235</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.213599455334645</v>
+        <v>1.878280411639778</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007497923659111762</v>
+        <v>0.0007804456614021833</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02315411303990045</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01107259061290655</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,36 +1420,42 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9037751340910631</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.9575343383031196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.026320899475138</v>
+        <v>5.643542784591943</v>
       </c>
       <c r="C21">
-        <v>1.605454566711671</v>
+        <v>1.617633673222088</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.545912950399099</v>
+        <v>2.208159889130968</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007426703988065672</v>
+        <v>0.0007758007075602692</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.03052528701895785</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01560759681299384</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,36 +1473,42 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.041354432315643</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.049367805858594</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.482494905412352</v>
+        <v>6.054981629084921</v>
       </c>
       <c r="C22">
-        <v>1.721472308090313</v>
+        <v>1.721897093229813</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.77111873249703</v>
+        <v>2.373131035669061</v>
       </c>
       <c r="F22">
-        <v>2.667416158031955</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007380364484104749</v>
+        <v>0.0007728912605559746</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.03536816661742437</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01867232433822874</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,36 +1526,42 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.143705272974302</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.103514759358632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.238565193787906</v>
+        <v>5.835425757555583</v>
       </c>
       <c r="C23">
-        <v>1.659446193825204</v>
+        <v>1.659583109929201</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.650102188894877</v>
+        <v>2.28502552055393</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.000740508482675108</v>
+        <v>0.0007744277975906085</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.03275557330050738</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01675250726775968</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,36 +1579,42 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.087844277934266</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.083991483364542</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.323976023571618</v>
+        <v>5.005576534307068</v>
       </c>
       <c r="C24">
-        <v>1.426634703154264</v>
+        <v>1.435901699072417</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.208285352221466</v>
+        <v>1.953721628580638</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.000749909267208039</v>
+        <v>0.0007803510040827074</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02362040906012486</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01071079612140746</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,36 +1632,42 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9017159666335886</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.002213127649725</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.352182379978274</v>
+        <v>4.113089848590278</v>
       </c>
       <c r="C25">
-        <v>1.178796381681138</v>
+        <v>1.197150090379012</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.758553363287561</v>
+        <v>1.600502819685076</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.0007602012176919824</v>
+        <v>0.0007869364568551807</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01518161825300501</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.005770901077604584</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.7456101252489447</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.9291665970757776</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_line/pl_mw.xlsx
@@ -427,52 +427,52 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.45706446842388</v>
+        <v>0.9523922967570684</v>
       </c>
       <c r="C2">
-        <v>1.007463387640854</v>
+        <v>0.1652983128569367</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.343001604769114</v>
+        <v>0.124111605307057</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.9487418781197761</v>
       </c>
       <c r="G2">
-        <v>0.0007919315264227313</v>
+        <v>0.3209050107747089</v>
       </c>
       <c r="H2">
-        <v>0.009976046992029766</v>
+        <v>0.009066798949200955</v>
       </c>
       <c r="I2">
-        <v>0.002654056212566314</v>
+        <v>0.007716312777732881</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3159049329214199</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3796920308837493</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.10025049544128</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.7989110547763687</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3177341117705197</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.2655972095243193</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.9101585796577893</v>
+        <v>1.288306722309372</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -480,52 +480,52 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.012171406964342</v>
+        <v>0.8299984371452069</v>
       </c>
       <c r="C3">
-        <v>0.8887149943078327</v>
+        <v>0.1622719803802397</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.169389773686817</v>
+        <v>0.1165912746269733</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.9115797077033179</v>
       </c>
       <c r="G3">
-        <v>0.0007954614514921511</v>
+        <v>0.321529914797118</v>
       </c>
       <c r="H3">
-        <v>0.006951618590052611</v>
+        <v>0.01141580396151637</v>
       </c>
       <c r="I3">
-        <v>0.001410059181311318</v>
+        <v>0.009580973973717377</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3202776034920305</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3854402657925888</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.09076095905011528</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7040198427640973</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2849627774515966</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.2323741825801591</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.8891057585376387</v>
+        <v>1.298532108765343</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -533,52 +533,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.738754624972501</v>
+        <v>0.7545785371461591</v>
       </c>
       <c r="C4">
-        <v>0.8163771175811689</v>
+        <v>0.1604044567730547</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.063116433664888</v>
+        <v>0.1119671708416234</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.8893258377806319</v>
       </c>
       <c r="G4">
-        <v>0.0007976930960263985</v>
+        <v>0.3222395592274125</v>
       </c>
       <c r="H4">
-        <v>0.005315784855754235</v>
+        <v>0.01305432899679418</v>
       </c>
       <c r="I4">
-        <v>0.0008979189225590822</v>
+        <v>0.01091047887278185</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.323190305064287</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3892104081689869</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.08493195659908537</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6456908875091614</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2649436412840771</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.2119688387263032</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.8782150267306292</v>
+        <v>1.305972203270471</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -586,52 +586,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.627221208681419</v>
+        <v>0.7234853556221594</v>
       </c>
       <c r="C5">
-        <v>0.7886090506703738</v>
+        <v>0.159698149169067</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.019853648607011</v>
+        <v>0.1100503998389968</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.8798561298602863</v>
       </c>
       <c r="G5">
-        <v>0.0007986238881468814</v>
+        <v>0.322301649479833</v>
       </c>
       <c r="H5">
-        <v>0.004698928024502003</v>
+        <v>0.01377347981532628</v>
       </c>
       <c r="I5">
-        <v>0.0008088876672678325</v>
+        <v>0.01158135078535638</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3242703194020677</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3905172564191481</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.08263830732463617</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6221594626143911</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2570225911680524</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.2036830355307941</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.8717184442198374</v>
+        <v>1.308296848780685</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -639,52 +639,52 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.608661551526438</v>
+        <v>0.7179639033200544</v>
       </c>
       <c r="C6">
-        <v>0.7859419212789192</v>
+        <v>0.1596525505253013</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.012653962182483</v>
+        <v>0.1096946938314325</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.8776337850764477</v>
       </c>
       <c r="G6">
-        <v>0.0007987853965448778</v>
+        <v>0.3219424390711652</v>
       </c>
       <c r="H6">
-        <v>0.004597866120651273</v>
+        <v>0.01390023355687919</v>
       </c>
       <c r="I6">
-        <v>0.0008797876039716712</v>
+        <v>0.01180553051638622</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3242537104880725</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3903852817148259</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.08235931602894908</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6185667897609477</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2559699119088918</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.2023464071604657</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.8675813516168773</v>
+        <v>1.307488767116908</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -692,52 +692,52 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.737157128669196</v>
+        <v>0.7531888061850793</v>
       </c>
       <c r="C7">
-        <v>0.8213050690186208</v>
+        <v>0.160593226848647</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.062480831808543</v>
+        <v>0.1118396151183951</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.8874022136916295</v>
       </c>
       <c r="G7">
-        <v>0.0007977214043917563</v>
+        <v>0.3212200794244353</v>
       </c>
       <c r="H7">
-        <v>0.005302660952479443</v>
+        <v>0.01307545087529453</v>
       </c>
       <c r="I7">
-        <v>0.001105510563603751</v>
+        <v>0.01120380203159321</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3226624216800715</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3882680048725113</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.08518062436322538</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6462400204314633</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2655512564826523</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.2119647737591919</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.8696960583638429</v>
+        <v>1.302703843284519</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -745,52 +745,52 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.303572487780059</v>
+        <v>0.908947647011189</v>
       </c>
       <c r="C8">
-        <v>0.9734888820579783</v>
+        <v>0.1645313200085177</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.28298990155524</v>
+        <v>0.1213859285362773</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.933441889458372</v>
       </c>
       <c r="G8">
-        <v>0.0007931546222333261</v>
+        <v>0.3197129331218775</v>
       </c>
       <c r="H8">
-        <v>0.008877294755860243</v>
+        <v>0.009847463850545669</v>
       </c>
       <c r="I8">
-        <v>0.002415490825453226</v>
+        <v>0.008662900263558093</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3166572211623375</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3803695644724172</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.09735365145649411</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.7673650908463969</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3073631099270386</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.2542850857760897</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.8913306168166599</v>
+        <v>1.287267172791587</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -798,52 +798,52 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.413697388953381</v>
+        <v>1.21411902198048</v>
       </c>
       <c r="C9">
-        <v>1.267469075783538</v>
+        <v>0.1718381483917177</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.719131879611268</v>
+        <v>0.1402477256353833</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>1.031628353111657</v>
       </c>
       <c r="G9">
-        <v>0.0007846681333266091</v>
+        <v>0.321276906338305</v>
       </c>
       <c r="H9">
-        <v>0.01786782060856185</v>
+        <v>0.00513306409196207</v>
       </c>
       <c r="I9">
-        <v>0.006909485273287608</v>
+        <v>0.004778553609172675</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3076929314593784</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3685368140961742</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1207353938520015</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.002969881205019</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3889825578593076</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.3370879245460472</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.9669023301322994</v>
+        <v>1.272415216295542</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -851,52 +851,52 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.229541537614182</v>
+        <v>1.435722191814932</v>
       </c>
       <c r="C10">
-        <v>1.489227463985628</v>
+        <v>0.1780450217119949</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.941193055041964</v>
+        <v>0.1500414906722618</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>1.091030485952999</v>
       </c>
       <c r="G10">
-        <v>0.0007789065123076898</v>
+        <v>0.3196094943627159</v>
       </c>
       <c r="H10">
-        <v>0.02527337859572842</v>
+        <v>0.003074299285370508</v>
       </c>
       <c r="I10">
-        <v>0.01186560577040563</v>
+        <v>0.003128499576128263</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2999106213100546</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3571907294856906</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1408207115039275</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.180451685342945</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.4378253414024869</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.3932879385687045</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.9923685502502906</v>
+        <v>1.25299443675776</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -904,52 +904,52 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.592035089196713</v>
+        <v>1.525427097999938</v>
       </c>
       <c r="C11">
-        <v>1.59189657791859</v>
+        <v>0.1891017956205232</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.254694484650472</v>
+        <v>0.1223068442883175</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.9885707993592376</v>
       </c>
       <c r="G11">
-        <v>0.0007778393998584065</v>
+        <v>0.2830572112012746</v>
       </c>
       <c r="H11">
-        <v>0.04071378888487232</v>
+        <v>0.02163014683884867</v>
       </c>
       <c r="I11">
-        <v>0.01359257270796466</v>
+        <v>0.003269728801615912</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2778697567344821</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3225675134464439</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1765617268593047</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.297723305975381</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.3608097660937943</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.3778329968564336</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.6840291361303485</v>
+        <v>1.129508954558943</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -957,52 +957,52 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.726383921551019</v>
+        <v>1.555786505514163</v>
       </c>
       <c r="C12">
-        <v>1.623456135342963</v>
+        <v>0.1987475291945202</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7606207801202487</v>
+        <v>0.1006474799204895</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.8959656571825647</v>
       </c>
       <c r="G12">
-        <v>0.0007779067756840159</v>
+        <v>0.2555804878170704</v>
       </c>
       <c r="H12">
-        <v>0.0766274760464043</v>
+        <v>0.06047026230029928</v>
       </c>
       <c r="I12">
-        <v>0.01369507220244959</v>
+        <v>0.003199096360019027</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2623179791664327</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2991304459955515</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2055462076346615</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.359457741202419</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2915442228475627</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.3530380111596827</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.4736524581405348</v>
+        <v>1.038744420896649</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1010,52 +1010,52 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.69149969114909</v>
+        <v>1.540397218729396</v>
       </c>
       <c r="C13">
-        <v>1.610267069501333</v>
+        <v>0.208021162194818</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3862190595630395</v>
+        <v>0.08229422188366264</v>
       </c>
       <c r="F13">
-        <v>2.504295469238414</v>
+        <v>0.80284955323053</v>
       </c>
       <c r="G13">
-        <v>0.0007788722137611204</v>
+        <v>0.2317661313816828</v>
       </c>
       <c r="H13">
-        <v>0.1296338476240209</v>
+        <v>0.1165704679081188</v>
       </c>
       <c r="I13">
-        <v>0.01282651398845491</v>
+        <v>0.003346695855557691</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2499171285471888</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2813064198741912</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2311258646333698</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.382788818857023</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2256868847411084</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.3199679809706026</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.3121078267026292</v>
+        <v>0.9622613376903502</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1063,52 +1063,52 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.590554727746905</v>
+        <v>1.508611745351885</v>
       </c>
       <c r="C14">
-        <v>1.582602072687394</v>
+        <v>0.2146496022175484</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1968044168632517</v>
+        <v>0.07150338940336276</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.738049128700375</v>
       </c>
       <c r="G14">
-        <v>0.0007799330981433236</v>
+        <v>0.2168319078816978</v>
       </c>
       <c r="H14">
-        <v>0.1771830353365829</v>
+        <v>0.1662411099606089</v>
       </c>
       <c r="I14">
-        <v>0.01190201796664603</v>
+        <v>0.003647925989349154</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2426663829066342</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2714898847672487</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2478530245086574</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.381962253749833</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1826479511611083</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.2933761206794969</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.2259690028565231</v>
+        <v>0.915359734885655</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1116,52 +1116,52 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.529752952375816</v>
+        <v>1.490733720760772</v>
       </c>
       <c r="C15">
-        <v>1.568534547397974</v>
+        <v>0.2161278093578005</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1596373502882997</v>
+        <v>0.06910673661982614</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7212756948205552</v>
       </c>
       <c r="G15">
-        <v>0.0007804154799479467</v>
+        <v>0.2135264945198188</v>
       </c>
       <c r="H15">
-        <v>0.1890866575273265</v>
+        <v>0.1789072212833247</v>
       </c>
       <c r="I15">
-        <v>0.01156379217992409</v>
+        <v>0.003902929505744446</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2413502572009634</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2698320104541168</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2508585329286035</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.373666279109358</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1722224188614447</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.2851969231640226</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.208809031408407</v>
+        <v>0.9055640610228863</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1169,52 +1169,52 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.184712317784374</v>
+        <v>1.397880747647605</v>
       </c>
       <c r="C16">
-        <v>1.478695092013709</v>
+        <v>0.2112835819835084</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1555078664300424</v>
+        <v>0.06898819239866505</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.7146910259267401</v>
       </c>
       <c r="G16">
-        <v>0.0007826700725010032</v>
+        <v>0.2182612243272715</v>
       </c>
       <c r="H16">
-        <v>0.1740758739912849</v>
+        <v>0.1670439107804214</v>
       </c>
       <c r="I16">
-        <v>0.009660260516514363</v>
+        <v>0.004687867883703234</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.246650785809102</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2774746750839547</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2362966839656906</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.291748718175313</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1666596380477898</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.2686977591313529</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.2274106021470175</v>
+        <v>0.9265298744877981</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1222,52 +1222,52 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.974309208171974</v>
+        <v>1.343645044457787</v>
       </c>
       <c r="C17">
-        <v>1.424871884375534</v>
+        <v>0.2039719485461688</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2391311429574401</v>
+        <v>0.07422831193805379</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.7435283719129515</v>
       </c>
       <c r="G17">
-        <v>0.000783856930264254</v>
+        <v>0.2297274810675987</v>
       </c>
       <c r="H17">
-        <v>0.1354299262250294</v>
+        <v>0.1297799818095626</v>
       </c>
       <c r="I17">
-        <v>0.0087354466932279</v>
+        <v>0.005169186793698266</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2545591666427498</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2884259061516747</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2161358205399182</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.229616812246775</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1843610946186089</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.2699947394217759</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.2835228288309182</v>
+        <v>0.9672982860905392</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1275,52 +1275,52 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.855468628462802</v>
+        <v>1.317140653616264</v>
       </c>
       <c r="C18">
-        <v>1.39117380567194</v>
+        <v>0.1941880410902002</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4709913206318603</v>
+        <v>0.08659994363921086</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.8094957240128906</v>
       </c>
       <c r="G18">
-        <v>0.0007841387904206719</v>
+        <v>0.249710926876638</v>
       </c>
       <c r="H18">
-        <v>0.08325542121928464</v>
+        <v>0.07706294911973544</v>
       </c>
       <c r="I18">
-        <v>0.008256881803588634</v>
+        <v>0.005074224309869813</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2662799375925928</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3050050678198772</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1900369005999281</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.177118249518571</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2275180156515688</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.2869681587336927</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.4019045300307198</v>
+        <v>1.034158686196307</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1328,52 +1328,52 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.818908855008374</v>
+        <v>1.312837588084562</v>
       </c>
       <c r="C19">
-        <v>1.387277969842842</v>
+        <v>0.1853491928052193</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.9032220602888259</v>
+        <v>0.1065684172324843</v>
       </c>
       <c r="F19">
-        <v>2.087706772602971</v>
+        <v>0.9016894691552579</v>
       </c>
       <c r="G19">
-        <v>0.0007835304193727203</v>
+        <v>0.2750290863620819</v>
       </c>
       <c r="H19">
-        <v>0.0406011370972692</v>
+        <v>0.03140897257707564</v>
       </c>
       <c r="I19">
-        <v>0.008711353139416289</v>
+        <v>0.005077365581970028</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2800337542928588</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3253349967404073</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1639773500890769</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.138662361031862</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2950624429351336</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.316164257413476</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.5855600131483385</v>
+        <v>1.11663133768954</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1381,52 +1381,52 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.014790210718388</v>
+        <v>1.374435365971095</v>
       </c>
       <c r="C20">
-        <v>1.447889257766235</v>
+        <v>0.1771936280819091</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.878280411639778</v>
+        <v>0.1469934874843766</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>1.069084116793249</v>
       </c>
       <c r="G20">
-        <v>0.0007804456614021833</v>
+        <v>0.3166746665505684</v>
       </c>
       <c r="H20">
-        <v>0.02315411303990045</v>
+        <v>0.003544714381090497</v>
       </c>
       <c r="I20">
-        <v>0.01107259061290655</v>
+        <v>0.004345985245411299</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3001729907807942</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3570985462570135</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1365680226972614</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.136804266669145</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.4267004786176471</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.3786661799587918</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.9575343383031196</v>
+        <v>1.247215204483737</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1434,52 +1434,52 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.643542784591943</v>
+        <v>1.546464314342472</v>
       </c>
       <c r="C21">
-        <v>1.617633673222088</v>
+        <v>0.1807488263011336</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.208159889130968</v>
+        <v>0.1607794901202269</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>1.140264559274129</v>
       </c>
       <c r="G21">
-        <v>0.0007758007075602692</v>
+        <v>0.3231542545345576</v>
       </c>
       <c r="H21">
-        <v>0.03052528701895785</v>
+        <v>0.0018873214786852</v>
       </c>
       <c r="I21">
-        <v>0.01560759681299384</v>
+        <v>0.003193150601778605</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2982908018979629</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3548368487592839</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1476588477517211</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.266499495427297</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4828260372205477</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.4291485349117821</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.049367805858594</v>
+        <v>1.257320804678699</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1487,52 +1487,52 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.054981629084921</v>
+        <v>1.65953759851152</v>
       </c>
       <c r="C22">
-        <v>1.721897093229813</v>
+        <v>0.1831436683501551</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.373131035669061</v>
+        <v>0.1678842785349559</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>1.1821096506674</v>
       </c>
       <c r="G22">
-        <v>0.0007728912605559746</v>
+        <v>0.3269380416662244</v>
       </c>
       <c r="H22">
-        <v>0.03536816661742437</v>
+        <v>0.001176860829808501</v>
       </c>
       <c r="I22">
-        <v>0.01867232433822874</v>
+        <v>0.002338700716326692</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2968730860216766</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.3530256472930517</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1559292649975959</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.352161425498394</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.5125190813863014</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.4596191670781522</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.103514759358632</v>
+        <v>1.26256986171893</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1540,52 +1540,52 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.835425757555583</v>
+        <v>1.600387286674902</v>
       </c>
       <c r="C23">
-        <v>1.659583109929201</v>
+        <v>0.1815769315962115</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.28502552055393</v>
+        <v>0.1642094013795479</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>1.161791723962835</v>
       </c>
       <c r="G23">
-        <v>0.0007744277975906085</v>
+        <v>0.3260374449471826</v>
       </c>
       <c r="H23">
-        <v>0.03275557330050738</v>
+        <v>0.001530289113775951</v>
       </c>
       <c r="I23">
-        <v>0.01675250726775968</v>
+        <v>0.002450950135432173</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2982096856126475</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3550355776653262</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1511645992367505</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.305362491093831</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4957910273093518</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.4432251261213125</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.083991483364542</v>
+        <v>1.26335544540683</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1593,52 +1593,52 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.005576534307068</v>
+        <v>1.374272363173162</v>
       </c>
       <c r="C24">
-        <v>1.435901699072417</v>
+        <v>0.1761336312842765</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.953721628580638</v>
+        <v>0.1501221877662609</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>1.083041309063674</v>
       </c>
       <c r="G24">
-        <v>0.0007803510040827074</v>
+        <v>0.321648267032252</v>
       </c>
       <c r="H24">
-        <v>0.02362040906012486</v>
+        <v>0.003345508124732444</v>
       </c>
       <c r="I24">
-        <v>0.01071079612140746</v>
+        <v>0.003810007583094688</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3028394689416984</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3615332220848373</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1337195787527818</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.129985535252587</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.4341295537646914</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.3814232398517206</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.002213127649725</v>
+        <v>1.263340425713011</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1646,52 +1646,52 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.113089848590278</v>
+        <v>1.12996647817414</v>
       </c>
       <c r="C25">
-        <v>1.197150090379012</v>
+        <v>0.1702647438548865</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.600502819685076</v>
+        <v>0.1349654611144615</v>
       </c>
       <c r="F25">
-        <v>1.757113814925091</v>
+        <v>1.001312034774486</v>
       </c>
       <c r="G25">
-        <v>0.0007869364568551807</v>
+        <v>0.3187397307471258</v>
       </c>
       <c r="H25">
-        <v>0.01518161825300501</v>
+        <v>0.006235256074110129</v>
       </c>
       <c r="I25">
-        <v>0.005770901077604584</v>
+        <v>0.006133293644045246</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3089631745604677</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3698389075186306</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1149241250941841</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.940852793692784</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.36809988961312</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.3148730345392678</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.9291665970757776</v>
+        <v>1.269537652425683</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9523922967570684</v>
+        <v>0.9448089825658883</v>
       </c>
       <c r="C2">
-        <v>0.1652983128569367</v>
+        <v>0.1468693856329004</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.124111605307057</v>
+        <v>0.1226990994077042</v>
       </c>
       <c r="F2">
-        <v>0.9487418781197761</v>
+        <v>0.9114092659059807</v>
       </c>
       <c r="G2">
-        <v>0.3209050107747089</v>
+        <v>0.2821772886172482</v>
       </c>
       <c r="H2">
-        <v>0.009066798949200955</v>
+        <v>0.007756447957796508</v>
       </c>
       <c r="I2">
-        <v>0.007716312777732881</v>
+        <v>0.005790246786597564</v>
       </c>
       <c r="J2">
-        <v>0.3159049329214199</v>
+        <v>0.3214423481087891</v>
       </c>
       <c r="K2">
-        <v>0.3796920308837493</v>
+        <v>0.3462288399291857</v>
       </c>
       <c r="L2">
-        <v>0.10025049544128</v>
+        <v>0.15792335971501</v>
       </c>
       <c r="M2">
-        <v>0.7989110547763687</v>
+        <v>0.1051864415789492</v>
       </c>
       <c r="N2">
-        <v>0.3177341117705197</v>
+        <v>0.1017927849730498</v>
       </c>
       <c r="O2">
-        <v>0.2655972095243193</v>
+        <v>0.8136048551323825</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3356419735877694</v>
       </c>
       <c r="Q2">
-        <v>1.288306722309372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.26752670610961</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.19893810005911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8299984371452069</v>
+        <v>0.8254518588871917</v>
       </c>
       <c r="C3">
-        <v>0.1622719803802397</v>
+        <v>0.1423043104313493</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1165912746269733</v>
+        <v>0.1155612484564408</v>
       </c>
       <c r="F3">
-        <v>0.9115797077033179</v>
+        <v>0.8783560300102309</v>
       </c>
       <c r="G3">
-        <v>0.321529914797118</v>
+        <v>0.2855275146146212</v>
       </c>
       <c r="H3">
-        <v>0.01141580396151637</v>
+        <v>0.009820054792448907</v>
       </c>
       <c r="I3">
-        <v>0.009580973973717377</v>
+        <v>0.007208474726714709</v>
       </c>
       <c r="J3">
-        <v>0.3202776034920305</v>
+        <v>0.3241494480996892</v>
       </c>
       <c r="K3">
-        <v>0.3854402657925888</v>
+        <v>0.3529496715569476</v>
       </c>
       <c r="L3">
-        <v>0.09076095905011528</v>
+        <v>0.1631571297007888</v>
       </c>
       <c r="M3">
-        <v>0.7040198427640973</v>
+        <v>0.1066218562787622</v>
       </c>
       <c r="N3">
-        <v>0.2849627774515966</v>
+        <v>0.09125801926743549</v>
       </c>
       <c r="O3">
-        <v>0.2323741825801591</v>
+        <v>0.7159272787744726</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3010515808439607</v>
       </c>
       <c r="Q3">
-        <v>1.298532108765343</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.2339003778719082</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.213794807465263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7545785371461591</v>
+        <v>0.7518152348150977</v>
       </c>
       <c r="C4">
-        <v>0.1604044567730547</v>
+        <v>0.1395290613621967</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1119671708416234</v>
+        <v>0.1111699574125922</v>
       </c>
       <c r="F4">
-        <v>0.8893258377806319</v>
+        <v>0.8585165144350313</v>
       </c>
       <c r="G4">
-        <v>0.3222395592274125</v>
+        <v>0.2879191150568232</v>
       </c>
       <c r="H4">
-        <v>0.01305432899679418</v>
+        <v>0.01126282477817626</v>
       </c>
       <c r="I4">
-        <v>0.01091047887278185</v>
+        <v>0.00823767211357973</v>
       </c>
       <c r="J4">
-        <v>0.323190305064287</v>
+        <v>0.3259038427706784</v>
       </c>
       <c r="K4">
-        <v>0.3892104081689869</v>
+        <v>0.3572561404174568</v>
       </c>
       <c r="L4">
-        <v>0.08493195659908537</v>
+        <v>0.1665191958697161</v>
       </c>
       <c r="M4">
-        <v>0.6456908875091614</v>
+        <v>0.1079955062947118</v>
       </c>
       <c r="N4">
-        <v>0.2649436412840771</v>
+        <v>0.08481037373385902</v>
       </c>
       <c r="O4">
-        <v>0.2119688387263032</v>
+        <v>0.6559298964152447</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.279968729366189</v>
       </c>
       <c r="Q4">
-        <v>1.305972203270471</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2132464834274863</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.223847717732582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7234853556221594</v>
+        <v>0.7214323774502986</v>
       </c>
       <c r="C5">
-        <v>0.159698149169067</v>
+        <v>0.1384809209916504</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1100503998389968</v>
+        <v>0.1093482474338785</v>
       </c>
       <c r="F5">
-        <v>0.8798561298602863</v>
+        <v>0.8500182336573232</v>
       </c>
       <c r="G5">
-        <v>0.322301649479833</v>
+        <v>0.288688123381263</v>
       </c>
       <c r="H5">
-        <v>0.01377347981532628</v>
+        <v>0.01189688234535386</v>
       </c>
       <c r="I5">
-        <v>0.01158135078535638</v>
+        <v>0.008791721062629598</v>
       </c>
       <c r="J5">
-        <v>0.3242703194020677</v>
+        <v>0.3264785210077648</v>
       </c>
       <c r="K5">
-        <v>0.3905172564191481</v>
+        <v>0.3587861051459438</v>
       </c>
       <c r="L5">
-        <v>0.08263830732463617</v>
+        <v>0.1677823092117521</v>
       </c>
       <c r="M5">
-        <v>0.6221594626143911</v>
+        <v>0.1086204819253522</v>
       </c>
       <c r="N5">
-        <v>0.2570225911680524</v>
+        <v>0.08227227860893294</v>
       </c>
       <c r="O5">
-        <v>0.2036830355307941</v>
+        <v>0.6317291871910555</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2716281925176247</v>
       </c>
       <c r="Q5">
-        <v>1.308296848780685</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2048590502953331</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.227227515216285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7179639033200544</v>
+        <v>0.7160319310199554</v>
       </c>
       <c r="C6">
-        <v>0.1596525505253013</v>
+        <v>0.138402554373581</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1096946938314325</v>
+        <v>0.1090091068261074</v>
       </c>
       <c r="F6">
-        <v>0.8776337850764477</v>
+        <v>0.8479733529759841</v>
       </c>
       <c r="G6">
-        <v>0.3219424390711652</v>
+        <v>0.2884708006199617</v>
       </c>
       <c r="H6">
-        <v>0.01390023355687919</v>
+        <v>0.0120088084493736</v>
       </c>
       <c r="I6">
-        <v>0.01180553051638622</v>
+        <v>0.00901221548855613</v>
       </c>
       <c r="J6">
-        <v>0.3242537104880725</v>
+        <v>0.3263761550572042</v>
       </c>
       <c r="K6">
-        <v>0.3903852817148259</v>
+        <v>0.358714569818309</v>
       </c>
       <c r="L6">
-        <v>0.08235931602894908</v>
+        <v>0.1678189713439249</v>
       </c>
       <c r="M6">
-        <v>0.6185667897609477</v>
+        <v>0.1086601071346305</v>
       </c>
       <c r="N6">
-        <v>0.2559699119088918</v>
+        <v>0.08195538229326615</v>
       </c>
       <c r="O6">
-        <v>0.2023464071604657</v>
+        <v>0.6280254219322501</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2705074220254318</v>
       </c>
       <c r="Q6">
-        <v>1.307488767116908</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2035052095858489</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.226649878553943</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7531888061850793</v>
+        <v>0.7505829404132953</v>
       </c>
       <c r="C7">
-        <v>0.160593226848647</v>
+        <v>0.1396878143925733</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1118396151183951</v>
+        <v>0.1111306967737704</v>
       </c>
       <c r="F7">
-        <v>0.8874022136916295</v>
+        <v>0.85589781662582</v>
       </c>
       <c r="G7">
-        <v>0.3212200794244353</v>
+        <v>0.2886492040321897</v>
       </c>
       <c r="H7">
-        <v>0.01307545087529453</v>
+        <v>0.01128682792262229</v>
       </c>
       <c r="I7">
-        <v>0.01120380203159321</v>
+        <v>0.008577070712879831</v>
       </c>
       <c r="J7">
-        <v>0.3226624216800715</v>
+        <v>0.3226614131710974</v>
       </c>
       <c r="K7">
-        <v>0.3882680048725113</v>
+        <v>0.3560386752536164</v>
       </c>
       <c r="L7">
-        <v>0.08518062436322538</v>
+        <v>0.1658938651356294</v>
       </c>
       <c r="M7">
-        <v>0.6462400204314633</v>
+        <v>0.1077142503675077</v>
       </c>
       <c r="N7">
-        <v>0.2655512564826523</v>
+        <v>0.08518914307889958</v>
       </c>
       <c r="O7">
-        <v>0.2119647737591919</v>
+        <v>0.6562202817286789</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2807202764957992</v>
       </c>
       <c r="Q7">
-        <v>1.302703843284519</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2133217145224293</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.218897351851822</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.908947647011189</v>
+        <v>0.9029011013951163</v>
       </c>
       <c r="C8">
-        <v>0.1645313200085177</v>
+        <v>0.1453555155782418</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1213859285362773</v>
+        <v>0.1203943317808438</v>
       </c>
       <c r="F8">
-        <v>0.933441889458372</v>
+        <v>0.8951209621641425</v>
       </c>
       <c r="G8">
-        <v>0.3197129331218775</v>
+        <v>0.2876123337379255</v>
       </c>
       <c r="H8">
-        <v>0.009847463850545669</v>
+        <v>0.008455230411109446</v>
       </c>
       <c r="I8">
-        <v>0.008662900263558093</v>
+        <v>0.006656793287028506</v>
       </c>
       <c r="J8">
-        <v>0.3166572211623375</v>
+        <v>0.3129769417094721</v>
       </c>
       <c r="K8">
-        <v>0.3803695644724172</v>
+        <v>0.346238541236163</v>
       </c>
       <c r="L8">
-        <v>0.09735365145649411</v>
+        <v>0.1586336462792293</v>
       </c>
       <c r="M8">
-        <v>0.7673650908463969</v>
+        <v>0.1049341918596713</v>
       </c>
       <c r="N8">
-        <v>0.3073631099270386</v>
+        <v>0.09897192607843408</v>
       </c>
       <c r="O8">
-        <v>0.2542850857760897</v>
+        <v>0.7802611257687744</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3251324421404433</v>
       </c>
       <c r="Q8">
-        <v>1.287267172791587</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2563469138294678</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.193711984242839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.21411902198048</v>
+        <v>1.200129224942714</v>
       </c>
       <c r="C9">
-        <v>0.1718381483917177</v>
+        <v>0.1565499106590806</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1402477256353833</v>
+        <v>0.1383703420294928</v>
       </c>
       <c r="F9">
-        <v>1.031628353111657</v>
+        <v>0.9817113295637654</v>
       </c>
       <c r="G9">
-        <v>0.321276906338305</v>
+        <v>0.2838851098136459</v>
       </c>
       <c r="H9">
-        <v>0.00513306409196207</v>
+        <v>0.004330245208028993</v>
       </c>
       <c r="I9">
-        <v>0.004778553609172675</v>
+        <v>0.003680089580106127</v>
       </c>
       <c r="J9">
-        <v>0.3076929314593784</v>
+        <v>0.3051232025931085</v>
       </c>
       <c r="K9">
-        <v>0.3685368140961742</v>
+        <v>0.3312982261465471</v>
       </c>
       <c r="L9">
-        <v>0.1207353938520015</v>
+        <v>0.1469433568168181</v>
       </c>
       <c r="M9">
-        <v>1.002969881205019</v>
+        <v>0.1041509471589706</v>
       </c>
       <c r="N9">
-        <v>0.3889825578593076</v>
+        <v>0.1252184533958811</v>
       </c>
       <c r="O9">
-        <v>0.3370879245460472</v>
+        <v>1.022797452971702</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4117277638281394</v>
       </c>
       <c r="Q9">
-        <v>1.272415216295542</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.3402215261248429</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.164266831276805</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.435722191814932</v>
+        <v>1.41666727754847</v>
       </c>
       <c r="C10">
-        <v>0.1780450217119949</v>
+        <v>0.1654636707697819</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1500414906722618</v>
+        <v>0.1480847358064068</v>
       </c>
       <c r="F10">
-        <v>1.091030485952999</v>
+        <v>1.028895325030987</v>
       </c>
       <c r="G10">
-        <v>0.3196094943627159</v>
+        <v>0.2890916959880201</v>
       </c>
       <c r="H10">
-        <v>0.003074299285370508</v>
+        <v>0.002586019998088496</v>
       </c>
       <c r="I10">
-        <v>0.003128499576128263</v>
+        <v>0.002573273816100397</v>
       </c>
       <c r="J10">
-        <v>0.2999106213100546</v>
+        <v>0.2843780211933264</v>
       </c>
       <c r="K10">
-        <v>0.3571907294856906</v>
+        <v>0.3163188499318004</v>
       </c>
       <c r="L10">
-        <v>0.1408207115039275</v>
+        <v>0.1373582034686862</v>
       </c>
       <c r="M10">
-        <v>1.180451685342945</v>
+        <v>0.1039698151159474</v>
       </c>
       <c r="N10">
-        <v>0.4378253414024869</v>
+        <v>0.1483775762874942</v>
       </c>
       <c r="O10">
-        <v>0.3932879385687045</v>
+        <v>1.203742550330674</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.4647480704753946</v>
       </c>
       <c r="Q10">
-        <v>1.25299443675776</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3976008921596801</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.12506891676243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.525427097999938</v>
+        <v>1.509045597593627</v>
       </c>
       <c r="C11">
-        <v>0.1891017956205232</v>
+        <v>0.1778621965684621</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1223068442883175</v>
+        <v>0.1215345237739314</v>
       </c>
       <c r="F11">
-        <v>0.9885707993592376</v>
+        <v>0.9241963854477007</v>
       </c>
       <c r="G11">
-        <v>0.2830572112012746</v>
+        <v>0.2765428503340459</v>
       </c>
       <c r="H11">
-        <v>0.02163014683884867</v>
+        <v>0.02118867787211087</v>
       </c>
       <c r="I11">
-        <v>0.003269728801615912</v>
+        <v>0.002959704950927566</v>
       </c>
       <c r="J11">
-        <v>0.2778697567344821</v>
+        <v>0.2460695195753537</v>
       </c>
       <c r="K11">
-        <v>0.3225675134464439</v>
+        <v>0.2839004581389393</v>
       </c>
       <c r="L11">
-        <v>0.1765617268593047</v>
+        <v>0.1247646309472579</v>
       </c>
       <c r="M11">
-        <v>1.297723305975381</v>
+        <v>0.09330021300027624</v>
       </c>
       <c r="N11">
-        <v>0.3608097660937943</v>
+        <v>0.1875688809219298</v>
       </c>
       <c r="O11">
-        <v>0.3778329968564336</v>
+        <v>1.317140093981834</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.3856768145942056</v>
       </c>
       <c r="Q11">
-        <v>1.129508954558943</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.3828518101664358</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.9972056661055149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.555786505514163</v>
+        <v>1.542358935069359</v>
       </c>
       <c r="C12">
-        <v>0.1987475291945202</v>
+        <v>0.1876705051142764</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1006474799204895</v>
+        <v>0.1003499457044015</v>
       </c>
       <c r="F12">
-        <v>0.8959656571825647</v>
+        <v>0.8350699641230506</v>
       </c>
       <c r="G12">
-        <v>0.2555804878170704</v>
+        <v>0.2598168405715882</v>
       </c>
       <c r="H12">
-        <v>0.06047026230029928</v>
+        <v>0.06002775863089482</v>
       </c>
       <c r="I12">
-        <v>0.003199096360019027</v>
+        <v>0.002916276599070677</v>
       </c>
       <c r="J12">
-        <v>0.2623179791664327</v>
+        <v>0.2306579079744644</v>
       </c>
       <c r="K12">
-        <v>0.2991304459955515</v>
+        <v>0.2641113684942376</v>
       </c>
       <c r="L12">
-        <v>0.2055462076346615</v>
+        <v>0.1179988369777609</v>
       </c>
       <c r="M12">
-        <v>1.359457741202419</v>
+        <v>0.08565077337778071</v>
       </c>
       <c r="N12">
-        <v>0.2915442228475627</v>
+        <v>0.2182957225923587</v>
       </c>
       <c r="O12">
-        <v>0.3530380111596827</v>
+        <v>1.375516956094117</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.3133012473289369</v>
       </c>
       <c r="Q12">
-        <v>1.038744420896649</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.3580836769918463</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.9136887193501622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.540397218729396</v>
+        <v>1.529924955956517</v>
       </c>
       <c r="C13">
-        <v>0.208021162194818</v>
+        <v>0.1968356662194068</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.08229422188366264</v>
+        <v>0.08197588662886979</v>
       </c>
       <c r="F13">
-        <v>0.80284955323053</v>
+        <v>0.7509779762682314</v>
       </c>
       <c r="G13">
-        <v>0.2317661313816828</v>
+        <v>0.233990893389219</v>
       </c>
       <c r="H13">
-        <v>0.1165704679081188</v>
+        <v>0.1160827608427866</v>
       </c>
       <c r="I13">
-        <v>0.003346695855557691</v>
+        <v>0.003000607009546741</v>
       </c>
       <c r="J13">
-        <v>0.2499171285471888</v>
+        <v>0.2270979545238934</v>
       </c>
       <c r="K13">
-        <v>0.2813064198741912</v>
+        <v>0.2513720933930372</v>
       </c>
       <c r="L13">
-        <v>0.2311258646333698</v>
+        <v>0.1141631724001106</v>
       </c>
       <c r="M13">
-        <v>1.382788818857023</v>
+        <v>0.07974562375408745</v>
       </c>
       <c r="N13">
-        <v>0.2256868847411084</v>
+        <v>0.2435892674526485</v>
       </c>
       <c r="O13">
-        <v>0.3199679809706026</v>
+        <v>1.396467828074577</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.2433665949501034</v>
       </c>
       <c r="Q13">
-        <v>0.9622613376903502</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3243568640353658</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.8554244378872653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.508611745351885</v>
+        <v>1.500211803771634</v>
       </c>
       <c r="C14">
-        <v>0.2146496022175484</v>
+        <v>0.203302783193692</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07150338940336276</v>
+        <v>0.07105496295764446</v>
       </c>
       <c r="F14">
-        <v>0.738049128700375</v>
+        <v>0.6943809368514735</v>
       </c>
       <c r="G14">
-        <v>0.2168319078816978</v>
+        <v>0.2131839947948748</v>
       </c>
       <c r="H14">
-        <v>0.1662411099606089</v>
+        <v>0.1657001977499277</v>
       </c>
       <c r="I14">
-        <v>0.003647925989349154</v>
+        <v>0.003228706970145545</v>
       </c>
       <c r="J14">
-        <v>0.2426663829066342</v>
+        <v>0.2282188481853158</v>
       </c>
       <c r="K14">
-        <v>0.2714898847672487</v>
+        <v>0.2453652257044983</v>
       </c>
       <c r="L14">
-        <v>0.2478530245086574</v>
+        <v>0.1125282697806127</v>
       </c>
       <c r="M14">
-        <v>1.381962253749833</v>
+        <v>0.07647475283100214</v>
       </c>
       <c r="N14">
-        <v>0.1826479511611083</v>
+        <v>0.2590352168524532</v>
       </c>
       <c r="O14">
-        <v>0.2933761206794969</v>
+        <v>1.394404424836381</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1972968449448231</v>
       </c>
       <c r="Q14">
-        <v>0.915359734885655</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.297038127128701</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.8246748882970891</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.490733720760772</v>
+        <v>1.482850482866127</v>
       </c>
       <c r="C15">
-        <v>0.2161278093578005</v>
+        <v>0.2047810141668407</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.06910673661982614</v>
+        <v>0.06859822024997442</v>
       </c>
       <c r="F15">
-        <v>0.7212756948205552</v>
+        <v>0.6804862538933563</v>
       </c>
       <c r="G15">
-        <v>0.2135264945198188</v>
+        <v>0.2067535079141081</v>
       </c>
       <c r="H15">
-        <v>0.1789072212833247</v>
+        <v>0.1783394265241185</v>
       </c>
       <c r="I15">
-        <v>0.003902929505744446</v>
+        <v>0.003465805388717769</v>
       </c>
       <c r="J15">
-        <v>0.2413502572009634</v>
+        <v>0.2300556932999793</v>
       </c>
       <c r="K15">
-        <v>0.2698320104541168</v>
+        <v>0.2448134291401587</v>
       </c>
       <c r="L15">
-        <v>0.2508585329286035</v>
+        <v>0.1124505601335488</v>
       </c>
       <c r="M15">
-        <v>1.373666279109358</v>
+        <v>0.07591913931747918</v>
       </c>
       <c r="N15">
-        <v>0.1722224188614447</v>
+        <v>0.2612927216117242</v>
       </c>
       <c r="O15">
-        <v>0.2851969231640226</v>
+        <v>1.386003404315971</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1860084841027145</v>
       </c>
       <c r="Q15">
-        <v>0.9055640610228863</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2885662140704</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.8204259194619681</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.397880747647605</v>
+        <v>1.390231430042093</v>
       </c>
       <c r="C16">
-        <v>0.2112835819835084</v>
+        <v>0.2001189146879483</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06898819239866505</v>
+        <v>0.06822001854150983</v>
       </c>
       <c r="F16">
-        <v>0.7146910259267401</v>
+        <v>0.6816902557800546</v>
       </c>
       <c r="G16">
-        <v>0.2182612243272715</v>
+        <v>0.1976890058105383</v>
       </c>
       <c r="H16">
-        <v>0.1670439107804214</v>
+        <v>0.1663295023600426</v>
       </c>
       <c r="I16">
-        <v>0.004687867883703234</v>
+        <v>0.004056802641937196</v>
       </c>
       <c r="J16">
-        <v>0.246650785809102</v>
+        <v>0.2472852970172212</v>
       </c>
       <c r="K16">
-        <v>0.2774746750839547</v>
+        <v>0.2540841405408756</v>
       </c>
       <c r="L16">
-        <v>0.2362966839656906</v>
+        <v>0.1158718212204848</v>
       </c>
       <c r="M16">
-        <v>1.291748718175313</v>
+        <v>0.0784030048366251</v>
       </c>
       <c r="N16">
-        <v>0.1666596380477898</v>
+        <v>0.2432955915939061</v>
       </c>
       <c r="O16">
-        <v>0.2686977591313529</v>
+        <v>1.305605031259972</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1790369389082898</v>
       </c>
       <c r="Q16">
-        <v>0.9265298744877981</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2710734366183374</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.8554459713941895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.343645044457787</v>
+        <v>1.335311947771203</v>
       </c>
       <c r="C17">
-        <v>0.2039719485461688</v>
+        <v>0.1927420876775159</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.07422831193805379</v>
+        <v>0.07327869872087334</v>
       </c>
       <c r="F17">
-        <v>0.7435283719129515</v>
+        <v>0.7118171457538409</v>
       </c>
       <c r="G17">
-        <v>0.2297274810675987</v>
+        <v>0.2027716505505381</v>
       </c>
       <c r="H17">
-        <v>0.1297799818095626</v>
+        <v>0.1289800629793518</v>
       </c>
       <c r="I17">
-        <v>0.005169186793698266</v>
+        <v>0.004429699951570498</v>
       </c>
       <c r="J17">
-        <v>0.2545591666427498</v>
+        <v>0.2607713618184029</v>
       </c>
       <c r="K17">
-        <v>0.2884259061516747</v>
+        <v>0.2644171242658526</v>
       </c>
       <c r="L17">
-        <v>0.2161358205399182</v>
+        <v>0.1197260509249176</v>
       </c>
       <c r="M17">
-        <v>1.229616812246775</v>
+        <v>0.0818070197986458</v>
       </c>
       <c r="N17">
-        <v>0.1843610946186089</v>
+        <v>0.2217477947618107</v>
       </c>
       <c r="O17">
-        <v>0.2699947394217759</v>
+        <v>1.244828442071508</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1971763555823856</v>
       </c>
       <c r="Q17">
-        <v>0.9672982860905392</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2720782221839926</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.8980904470388111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.317140653616264</v>
+        <v>1.30696671364521</v>
       </c>
       <c r="C18">
-        <v>0.1941880410902002</v>
+        <v>0.1827378234964314</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.08659994363921086</v>
+        <v>0.08537140512049035</v>
       </c>
       <c r="F18">
-        <v>0.8094957240128906</v>
+        <v>0.7747917060544864</v>
       </c>
       <c r="G18">
-        <v>0.249710926876638</v>
+        <v>0.2180064397459347</v>
       </c>
       <c r="H18">
-        <v>0.07706294911973544</v>
+        <v>0.0762396186809795</v>
       </c>
       <c r="I18">
-        <v>0.005074224309869813</v>
+        <v>0.004249384017697366</v>
       </c>
       <c r="J18">
-        <v>0.2662799375925928</v>
+        <v>0.2740949847429626</v>
       </c>
       <c r="K18">
-        <v>0.3050050678198772</v>
+        <v>0.2785774771982474</v>
       </c>
       <c r="L18">
-        <v>0.1900369005999281</v>
+        <v>0.1250764057394598</v>
       </c>
       <c r="M18">
-        <v>1.177118249518571</v>
+        <v>0.08687862264303448</v>
       </c>
       <c r="N18">
-        <v>0.2275180156515688</v>
+        <v>0.1952761517048387</v>
       </c>
       <c r="O18">
-        <v>0.2869681587336927</v>
+        <v>1.194239677840329</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.242300477543651</v>
       </c>
       <c r="Q18">
-        <v>1.034158686196307</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2891638049813707</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.9589154034046743</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.312837588084562</v>
+        <v>1.299958447841533</v>
       </c>
       <c r="C19">
-        <v>0.1853491928052193</v>
+        <v>0.1735261531233334</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1065684172324843</v>
+        <v>0.104935677937295</v>
       </c>
       <c r="F19">
-        <v>0.9016894691552579</v>
+        <v>0.8609469468281645</v>
       </c>
       <c r="G19">
-        <v>0.2750290863620819</v>
+        <v>0.2389347704120866</v>
       </c>
       <c r="H19">
-        <v>0.03140897257707564</v>
+        <v>0.03062986935344725</v>
       </c>
       <c r="I19">
-        <v>0.005077365581970028</v>
+        <v>0.00430725205191429</v>
       </c>
       <c r="J19">
-        <v>0.2800337542928588</v>
+        <v>0.2869117440832625</v>
       </c>
       <c r="K19">
-        <v>0.3253349967404073</v>
+        <v>0.2951433581366292</v>
       </c>
       <c r="L19">
-        <v>0.1639773500890769</v>
+        <v>0.1313229738487998</v>
       </c>
       <c r="M19">
-        <v>1.138662361031862</v>
+        <v>0.09305175222164941</v>
       </c>
       <c r="N19">
-        <v>0.2950624429351336</v>
+        <v>0.1693032857739212</v>
       </c>
       <c r="O19">
-        <v>0.316164257413476</v>
+        <v>1.158149543874828</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.3131349210740382</v>
       </c>
       <c r="Q19">
-        <v>1.11663133768954</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.3187386920492159</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.029928893053068</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.374435365971095</v>
+        <v>1.356315714500397</v>
       </c>
       <c r="C20">
-        <v>0.1771936280819091</v>
+        <v>0.1645597996463195</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1469934874843766</v>
+        <v>0.1447547973103234</v>
       </c>
       <c r="F20">
-        <v>1.069084116793249</v>
+        <v>1.01312758349637</v>
       </c>
       <c r="G20">
-        <v>0.3166746665505684</v>
+        <v>0.2783716719778866</v>
       </c>
       <c r="H20">
-        <v>0.003544714381090497</v>
+        <v>0.002973142161273756</v>
       </c>
       <c r="I20">
-        <v>0.004345985245411299</v>
+        <v>0.003806138802699977</v>
       </c>
       <c r="J20">
-        <v>0.3001729907807942</v>
+        <v>0.2965336143248791</v>
       </c>
       <c r="K20">
-        <v>0.3570985462570135</v>
+        <v>0.3186973258346626</v>
       </c>
       <c r="L20">
-        <v>0.1365680226972614</v>
+        <v>0.1392458382213047</v>
       </c>
       <c r="M20">
-        <v>1.136804266669145</v>
+        <v>0.1033136174688298</v>
       </c>
       <c r="N20">
-        <v>0.4267004786176471</v>
+        <v>0.1428535967035316</v>
       </c>
       <c r="O20">
-        <v>0.3786661799587918</v>
+        <v>1.160084908598037</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.4519738467228649</v>
       </c>
       <c r="Q20">
-        <v>1.247215204483737</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.3823685518185798</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.131798972058021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.546464314342472</v>
+        <v>1.526346033115317</v>
       </c>
       <c r="C21">
-        <v>0.1807488263011336</v>
+        <v>0.1681096560269069</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1607794901202269</v>
+        <v>0.1601041924437254</v>
       </c>
       <c r="F21">
-        <v>1.140264559274129</v>
+        <v>1.058776289289455</v>
       </c>
       <c r="G21">
-        <v>0.3231542545345576</v>
+        <v>0.3243604249288978</v>
       </c>
       <c r="H21">
-        <v>0.0018873214786852</v>
+        <v>0.001559858097696765</v>
       </c>
       <c r="I21">
-        <v>0.003193150601778605</v>
+        <v>0.003027833287415405</v>
       </c>
       <c r="J21">
-        <v>0.2982908018979629</v>
+        <v>0.2484367101921379</v>
       </c>
       <c r="K21">
-        <v>0.3548368487592839</v>
+        <v>0.3065202196494745</v>
       </c>
       <c r="L21">
-        <v>0.1476588477517211</v>
+        <v>0.1320685830645854</v>
       </c>
       <c r="M21">
-        <v>1.266499495427297</v>
+        <v>0.1032487287618089</v>
       </c>
       <c r="N21">
-        <v>0.4828260372205477</v>
+        <v>0.1589328113672011</v>
       </c>
       <c r="O21">
-        <v>0.4291485349117821</v>
+        <v>1.288131354098965</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.5153123715064112</v>
       </c>
       <c r="Q21">
-        <v>1.257320804678699</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.4354556241643834</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.089857264587849</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.65953759851152</v>
+        <v>1.638490843896619</v>
       </c>
       <c r="C22">
-        <v>0.1831436683501551</v>
+        <v>0.1704218606254813</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1678842785349559</v>
+        <v>0.1684798240590055</v>
       </c>
       <c r="F22">
-        <v>1.1821096506674</v>
+        <v>1.082975721977135</v>
       </c>
       <c r="G22">
-        <v>0.3269380416662244</v>
+        <v>0.3608562179589185</v>
       </c>
       <c r="H22">
-        <v>0.001176860829808501</v>
+        <v>0.0009659540677526834</v>
       </c>
       <c r="I22">
-        <v>0.002338700716326692</v>
+        <v>0.002300147084786097</v>
       </c>
       <c r="J22">
-        <v>0.2968730860216766</v>
+        <v>0.2251279489390257</v>
       </c>
       <c r="K22">
-        <v>0.3530256472930517</v>
+        <v>0.2979451434495815</v>
       </c>
       <c r="L22">
-        <v>0.1559292649975959</v>
+        <v>0.1274124863372812</v>
       </c>
       <c r="M22">
-        <v>1.352161425498394</v>
+        <v>0.1031420888839598</v>
       </c>
       <c r="N22">
-        <v>0.5125190813863014</v>
+        <v>0.1707870676761161</v>
       </c>
       <c r="O22">
-        <v>0.4596191670781522</v>
+        <v>1.372139856735885</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.5497654094487388</v>
       </c>
       <c r="Q22">
-        <v>1.26256986171893</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.4677533476681717</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.05904922388288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.600387286674902</v>
+        <v>1.579433564097627</v>
       </c>
       <c r="C23">
-        <v>0.1815769315962115</v>
+        <v>0.1690275121121232</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1642094013795479</v>
+        <v>0.1638678394661071</v>
       </c>
       <c r="F23">
-        <v>1.161791723962835</v>
+        <v>1.073969984077749</v>
       </c>
       <c r="G23">
-        <v>0.3260374449471826</v>
+        <v>0.3368178574662934</v>
       </c>
       <c r="H23">
-        <v>0.001530289113775951</v>
+        <v>0.001258490294071435</v>
       </c>
       <c r="I23">
-        <v>0.002450950135432173</v>
+        <v>0.002284823976279604</v>
       </c>
       <c r="J23">
-        <v>0.2982096856126475</v>
+        <v>0.2400949877522649</v>
       </c>
       <c r="K23">
-        <v>0.3550355776653262</v>
+        <v>0.3041962041737527</v>
       </c>
       <c r="L23">
-        <v>0.1511645992367505</v>
+        <v>0.1304070597416889</v>
       </c>
       <c r="M23">
-        <v>1.305362491093831</v>
+        <v>0.1039111181404699</v>
       </c>
       <c r="N23">
-        <v>0.4957910273093518</v>
+        <v>0.1636948792466129</v>
       </c>
       <c r="O23">
-        <v>0.4432251261213125</v>
+        <v>1.326896464785875</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.5300475125852415</v>
       </c>
       <c r="Q23">
-        <v>1.26335544540683</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.450155604339443</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.083136527882374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.374272363173162</v>
+        <v>1.355857445145631</v>
       </c>
       <c r="C24">
-        <v>0.1761336312842765</v>
+        <v>0.163169803421475</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1501221877662609</v>
+        <v>0.147813899483964</v>
       </c>
       <c r="F24">
-        <v>1.083041309063674</v>
+        <v>1.026324117716868</v>
       </c>
       <c r="G24">
-        <v>0.321648267032252</v>
+        <v>0.2824702461641309</v>
       </c>
       <c r="H24">
-        <v>0.003345508124732444</v>
+        <v>0.002781366054547596</v>
       </c>
       <c r="I24">
-        <v>0.003810007583094688</v>
+        <v>0.003173828964084358</v>
       </c>
       <c r="J24">
-        <v>0.3028394689416984</v>
+        <v>0.2992504422855404</v>
       </c>
       <c r="K24">
-        <v>0.3615332220848373</v>
+        <v>0.322467868742681</v>
       </c>
       <c r="L24">
-        <v>0.1337195787527818</v>
+        <v>0.1406632205489622</v>
       </c>
       <c r="M24">
-        <v>1.129985535252587</v>
+        <v>0.1047168340922369</v>
       </c>
       <c r="N24">
-        <v>0.4341295537646914</v>
+        <v>0.1398992333292313</v>
       </c>
       <c r="O24">
-        <v>0.3814232398517206</v>
+        <v>1.153485446955273</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.4597872812961867</v>
       </c>
       <c r="Q24">
-        <v>1.263340425713011</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.3851563797093149</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.146209841813075</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.12996647817414</v>
+        <v>1.118036565436455</v>
       </c>
       <c r="C25">
-        <v>0.1702647438548865</v>
+        <v>0.1541941203783992</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1349654611144615</v>
+        <v>0.1332101163553396</v>
       </c>
       <c r="F25">
-        <v>1.001312034774486</v>
+        <v>0.9558192162467662</v>
       </c>
       <c r="G25">
-        <v>0.3187397307471258</v>
+        <v>0.280475625975086</v>
       </c>
       <c r="H25">
-        <v>0.006235256074110129</v>
+        <v>0.005287037908037528</v>
       </c>
       <c r="I25">
-        <v>0.006133293644045246</v>
+        <v>0.004890413794893966</v>
       </c>
       <c r="J25">
-        <v>0.3089631745604677</v>
+        <v>0.3098825617487151</v>
       </c>
       <c r="K25">
-        <v>0.3698389075186306</v>
+        <v>0.3341415007818398</v>
       </c>
       <c r="L25">
-        <v>0.1149241250941841</v>
+        <v>0.1495552471903405</v>
       </c>
       <c r="M25">
-        <v>0.940852793692784</v>
+        <v>0.1035850281686912</v>
       </c>
       <c r="N25">
-        <v>0.36809988961312</v>
+        <v>0.1184447758810308</v>
       </c>
       <c r="O25">
-        <v>0.3148730345392678</v>
+        <v>0.9591356504858766</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.3892526352758239</v>
       </c>
       <c r="Q25">
-        <v>1.269537652425683</v>
+        <v>0.3176004585159617</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.168554824988789</v>
       </c>
     </row>
   </sheetData>
